--- a/server/env/Vocabulary/Vocabulary.xlsx
+++ b/server/env/Vocabulary/Vocabulary.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\reide\OneDrive\Documents\VSCode\JavaScriptVS\LUNALA\lunala-api\server\env\Vocabulary\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{2E3F2554-39F4-4CAC-86F2-7541CB91F0B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1555E26-5E03-490C-BCA9-2E4339A5E07D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5272" yWindow="0" windowWidth="20678" windowHeight="14130"/>
+    <workbookView xWindow="8947" yWindow="5063" windowWidth="20678" windowHeight="14130" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Vocabulary" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1704" uniqueCount="1268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1705" uniqueCount="1269">
   <si>
     <t>Kanji</t>
   </si>
@@ -1063,9 +1063,6 @@
     <t>Free (not busy)</t>
   </si>
   <si>
-    <t>泳ぎ</t>
-  </si>
-  <si>
     <t>およぐ</t>
   </si>
   <si>
@@ -3824,12 +3821,18 @@
   </si>
   <si>
     <t>少ない</t>
+  </si>
+  <si>
+    <t>泳ぐ</t>
+  </si>
+  <si>
+    <t>はんぶん</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -4663,11 +4666,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E426"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A407" workbookViewId="0">
-      <selection activeCell="H416" sqref="H416"/>
+    <sheetView tabSelected="1" topLeftCell="A307" workbookViewId="0">
+      <selection activeCell="B325" sqref="B325"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -4743,7 +4746,7 @@
         <v>8</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
@@ -4845,7 +4848,7 @@
         <v>24</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.45">
@@ -4879,7 +4882,7 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.45">
@@ -5253,7 +5256,7 @@
         <v>24</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.45">
@@ -5423,7 +5426,7 @@
         <v>130</v>
       </c>
       <c r="E44">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.45">
@@ -5440,7 +5443,7 @@
         <v>130</v>
       </c>
       <c r="E45">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.45">
@@ -5457,7 +5460,7 @@
         <v>130</v>
       </c>
       <c r="E46">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.45">
@@ -5474,7 +5477,7 @@
         <v>130</v>
       </c>
       <c r="E47">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.45">
@@ -5491,7 +5494,7 @@
         <v>130</v>
       </c>
       <c r="E48">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.45">
@@ -5508,7 +5511,7 @@
         <v>130</v>
       </c>
       <c r="E49">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.45">
@@ -5525,7 +5528,7 @@
         <v>130</v>
       </c>
       <c r="E50">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.45">
@@ -5542,7 +5545,7 @@
         <v>130</v>
       </c>
       <c r="E51">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.45">
@@ -5559,7 +5562,7 @@
         <v>130</v>
       </c>
       <c r="E52">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.45">
@@ -5576,7 +5579,7 @@
         <v>130</v>
       </c>
       <c r="E53">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.45">
@@ -5593,7 +5596,7 @@
         <v>130</v>
       </c>
       <c r="E54">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.45">
@@ -5610,7 +5613,7 @@
         <v>130</v>
       </c>
       <c r="E55">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.45">
@@ -5627,7 +5630,7 @@
         <v>130</v>
       </c>
       <c r="E56">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.45">
@@ -5644,7 +5647,7 @@
         <v>130</v>
       </c>
       <c r="E57">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.45">
@@ -5661,7 +5664,7 @@
         <v>130</v>
       </c>
       <c r="E58">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.45">
@@ -5678,7 +5681,7 @@
         <v>130</v>
       </c>
       <c r="E59">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.45">
@@ -5695,7 +5698,7 @@
         <v>130</v>
       </c>
       <c r="E60">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.45">
@@ -5712,7 +5715,7 @@
         <v>130</v>
       </c>
       <c r="E61">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.45">
@@ -5729,7 +5732,7 @@
         <v>130</v>
       </c>
       <c r="E62">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.45">
@@ -5746,7 +5749,7 @@
         <v>130</v>
       </c>
       <c r="E63">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.45">
@@ -5763,7 +5766,7 @@
         <v>130</v>
       </c>
       <c r="E64">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.45">
@@ -5780,7 +5783,7 @@
         <v>130</v>
       </c>
       <c r="E65">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.45">
@@ -5797,7 +5800,7 @@
         <v>130</v>
       </c>
       <c r="E66">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.45">
@@ -5814,7 +5817,7 @@
         <v>130</v>
       </c>
       <c r="E67">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.45">
@@ -5831,7 +5834,7 @@
         <v>130</v>
       </c>
       <c r="E68">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.45">
@@ -5848,7 +5851,7 @@
         <v>130</v>
       </c>
       <c r="E69">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.45">
@@ -5865,7 +5868,7 @@
         <v>130</v>
       </c>
       <c r="E70">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.45">
@@ -5882,7 +5885,7 @@
         <v>130</v>
       </c>
       <c r="E71">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.45">
@@ -5899,7 +5902,7 @@
         <v>130</v>
       </c>
       <c r="E72">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.45">
@@ -5916,7 +5919,7 @@
         <v>130</v>
       </c>
       <c r="E73">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.45">
@@ -5933,7 +5936,7 @@
         <v>130</v>
       </c>
       <c r="E74">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.45">
@@ -5950,7 +5953,7 @@
         <v>130</v>
       </c>
       <c r="E75">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.45">
@@ -5967,7 +5970,7 @@
         <v>130</v>
       </c>
       <c r="E76">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.45">
@@ -5984,7 +5987,7 @@
         <v>130</v>
       </c>
       <c r="E77">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.45">
@@ -6001,7 +6004,7 @@
         <v>130</v>
       </c>
       <c r="E78">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.45">
@@ -6018,7 +6021,7 @@
         <v>130</v>
       </c>
       <c r="E79">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.45">
@@ -6035,7 +6038,7 @@
         <v>130</v>
       </c>
       <c r="E80">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.45">
@@ -6052,7 +6055,7 @@
         <v>130</v>
       </c>
       <c r="E81">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.45">
@@ -6069,7 +6072,7 @@
         <v>130</v>
       </c>
       <c r="E82">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.45">
@@ -6086,7 +6089,7 @@
         <v>254</v>
       </c>
       <c r="E83">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.45">
@@ -6103,7 +6106,7 @@
         <v>254</v>
       </c>
       <c r="E84">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.45">
@@ -6120,7 +6123,7 @@
         <v>254</v>
       </c>
       <c r="E85">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.45">
@@ -6137,7 +6140,7 @@
         <v>254</v>
       </c>
       <c r="E86">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.45">
@@ -6154,7 +6157,7 @@
         <v>254</v>
       </c>
       <c r="E87">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.45">
@@ -6171,7 +6174,7 @@
         <v>254</v>
       </c>
       <c r="E88">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.45">
@@ -6188,7 +6191,7 @@
         <v>254</v>
       </c>
       <c r="E89">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.45">
@@ -6205,7 +6208,7 @@
         <v>254</v>
       </c>
       <c r="E90">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.45">
@@ -6222,7 +6225,7 @@
         <v>254</v>
       </c>
       <c r="E91">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.45">
@@ -6239,7 +6242,7 @@
         <v>254</v>
       </c>
       <c r="E92">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.45">
@@ -6256,7 +6259,7 @@
         <v>254</v>
       </c>
       <c r="E93">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.45">
@@ -6273,7 +6276,7 @@
         <v>254</v>
       </c>
       <c r="E94">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.45">
@@ -6290,7 +6293,7 @@
         <v>254</v>
       </c>
       <c r="E95">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.45">
@@ -6307,7 +6310,7 @@
         <v>254</v>
       </c>
       <c r="E96">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.45">
@@ -6324,7 +6327,7 @@
         <v>254</v>
       </c>
       <c r="E97">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.45">
@@ -6341,7 +6344,7 @@
         <v>254</v>
       </c>
       <c r="E98">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.45">
@@ -6358,7 +6361,7 @@
         <v>254</v>
       </c>
       <c r="E99">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.45">
@@ -6375,7 +6378,7 @@
         <v>254</v>
       </c>
       <c r="E100">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.45">
@@ -6392,7 +6395,7 @@
         <v>254</v>
       </c>
       <c r="E101">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.45">
@@ -6409,7 +6412,7 @@
         <v>254</v>
       </c>
       <c r="E102">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.45">
@@ -6426,7 +6429,7 @@
         <v>254</v>
       </c>
       <c r="E103">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.45">
@@ -6443,7 +6446,7 @@
         <v>254</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.45">
@@ -6460,7 +6463,7 @@
         <v>254</v>
       </c>
       <c r="E105">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.45">
@@ -6477,7 +6480,7 @@
         <v>254</v>
       </c>
       <c r="E106">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.45">
@@ -6494,7 +6497,7 @@
         <v>254</v>
       </c>
       <c r="E107">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.45">
@@ -6511,7 +6514,7 @@
         <v>254</v>
       </c>
       <c r="E108">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.45">
@@ -6528,7 +6531,7 @@
         <v>254</v>
       </c>
       <c r="E109">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.45">
@@ -6545,7 +6548,7 @@
         <v>254</v>
       </c>
       <c r="E110">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.45">
@@ -6562,7 +6565,7 @@
         <v>254</v>
       </c>
       <c r="E111">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.45">
@@ -6579,7 +6582,7 @@
         <v>254</v>
       </c>
       <c r="E112">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.45">
@@ -6596,7 +6599,7 @@
         <v>254</v>
       </c>
       <c r="E113">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.45">
@@ -6613,5308 +6616,5311 @@
         <v>254</v>
       </c>
       <c r="E114">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A115" t="s">
+        <v>1267</v>
+      </c>
+      <c r="B115" t="s">
         <v>347</v>
       </c>
-      <c r="B115" t="s">
+      <c r="C115" t="s">
         <v>348</v>
-      </c>
-      <c r="C115" t="s">
-        <v>349</v>
       </c>
       <c r="D115" t="s">
         <v>254</v>
       </c>
       <c r="E115">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A116" t="s">
+        <v>349</v>
+      </c>
+      <c r="B116" t="s">
         <v>350</v>
       </c>
-      <c r="B116" t="s">
+      <c r="C116" t="s">
         <v>351</v>
-      </c>
-      <c r="C116" t="s">
-        <v>352</v>
       </c>
       <c r="D116" t="s">
         <v>254</v>
       </c>
       <c r="E116">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A117" t="s">
+        <v>352</v>
+      </c>
+      <c r="B117" t="s">
         <v>353</v>
       </c>
-      <c r="B117" t="s">
+      <c r="C117" t="s">
         <v>354</v>
-      </c>
-      <c r="C117" t="s">
-        <v>355</v>
       </c>
       <c r="D117" t="s">
         <v>254</v>
       </c>
       <c r="E117">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A118" t="s">
+        <v>355</v>
+      </c>
+      <c r="B118" t="s">
         <v>356</v>
       </c>
-      <c r="B118" t="s">
+      <c r="C118" t="s">
         <v>357</v>
-      </c>
-      <c r="C118" t="s">
-        <v>358</v>
       </c>
       <c r="D118" t="s">
         <v>254</v>
       </c>
       <c r="E118">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A119" t="s">
+        <v>358</v>
+      </c>
+      <c r="B119" t="s">
         <v>359</v>
       </c>
-      <c r="B119" t="s">
+      <c r="C119" t="s">
         <v>360</v>
-      </c>
-      <c r="C119" t="s">
-        <v>361</v>
       </c>
       <c r="D119" t="s">
         <v>254</v>
       </c>
       <c r="E119">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A120" t="s">
+        <v>361</v>
+      </c>
+      <c r="B120" t="s">
         <v>362</v>
       </c>
-      <c r="B120" t="s">
+      <c r="C120" t="s">
         <v>363</v>
-      </c>
-      <c r="C120" t="s">
-        <v>364</v>
       </c>
       <c r="D120" t="s">
         <v>254</v>
       </c>
       <c r="E120">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A121" t="s">
+        <v>364</v>
+      </c>
+      <c r="B121" t="s">
         <v>365</v>
-      </c>
-      <c r="B121" t="s">
-        <v>366</v>
       </c>
       <c r="C121" t="s">
         <v>0</v>
       </c>
       <c r="D121" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E121">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A122" t="s">
+        <v>367</v>
+      </c>
+      <c r="B122" t="s">
         <v>368</v>
       </c>
-      <c r="B122" t="s">
+      <c r="C122" t="s">
         <v>369</v>
       </c>
-      <c r="C122" t="s">
-        <v>370</v>
-      </c>
       <c r="D122" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E122">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A123" t="s">
+        <v>370</v>
+      </c>
+      <c r="B123" t="s">
         <v>371</v>
       </c>
-      <c r="B123" t="s">
+      <c r="C123" t="s">
         <v>372</v>
       </c>
-      <c r="C123" t="s">
-        <v>373</v>
-      </c>
       <c r="D123" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E123">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A124" t="s">
+        <v>373</v>
+      </c>
+      <c r="B124" t="s">
         <v>374</v>
       </c>
-      <c r="B124" t="s">
+      <c r="C124" t="s">
         <v>375</v>
       </c>
-      <c r="C124" t="s">
-        <v>376</v>
-      </c>
       <c r="D124" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E124">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A125" t="s">
+        <v>376</v>
+      </c>
+      <c r="B125" t="s">
         <v>377</v>
       </c>
-      <c r="B125" t="s">
+      <c r="C125" t="s">
         <v>378</v>
       </c>
-      <c r="C125" t="s">
-        <v>379</v>
-      </c>
       <c r="D125" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E125">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A126" t="s">
+        <v>379</v>
+      </c>
+      <c r="B126" t="s">
         <v>380</v>
       </c>
-      <c r="B126" t="s">
+      <c r="C126" t="s">
         <v>381</v>
       </c>
-      <c r="C126" t="s">
-        <v>382</v>
-      </c>
       <c r="D126" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E126">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A127" t="s">
+        <v>382</v>
+      </c>
+      <c r="B127" t="s">
         <v>383</v>
       </c>
-      <c r="B127" t="s">
+      <c r="C127" t="s">
         <v>384</v>
       </c>
-      <c r="C127" t="s">
-        <v>385</v>
-      </c>
       <c r="D127" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E127">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A128" t="s">
+        <v>385</v>
+      </c>
+      <c r="B128" t="s">
         <v>386</v>
       </c>
-      <c r="B128" t="s">
+      <c r="C128" t="s">
         <v>387</v>
       </c>
-      <c r="C128" t="s">
-        <v>388</v>
-      </c>
       <c r="D128" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E128">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A129" t="s">
+        <v>388</v>
+      </c>
+      <c r="B129" t="s">
         <v>389</v>
       </c>
-      <c r="B129" t="s">
+      <c r="C129" t="s">
         <v>390</v>
       </c>
-      <c r="C129" t="s">
-        <v>391</v>
-      </c>
       <c r="D129" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E129">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A130" t="s">
+        <v>391</v>
+      </c>
+      <c r="B130" t="s">
         <v>392</v>
-      </c>
-      <c r="B130" t="s">
-        <v>393</v>
       </c>
       <c r="C130" t="s">
         <v>3</v>
       </c>
       <c r="D130" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E130">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A131" t="s">
+        <v>393</v>
+      </c>
+      <c r="B131" t="s">
         <v>394</v>
       </c>
-      <c r="B131" t="s">
+      <c r="C131" t="s">
         <v>395</v>
       </c>
-      <c r="C131" t="s">
-        <v>396</v>
-      </c>
       <c r="D131" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E131">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A132" t="s">
+        <v>396</v>
+      </c>
+      <c r="B132" t="s">
         <v>397</v>
       </c>
-      <c r="B132" t="s">
+      <c r="C132" t="s">
         <v>398</v>
       </c>
-      <c r="C132" t="s">
-        <v>399</v>
-      </c>
       <c r="D132" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E132">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A133" t="s">
+        <v>399</v>
+      </c>
+      <c r="B133" t="s">
         <v>400</v>
       </c>
-      <c r="B133" t="s">
+      <c r="C133" t="s">
         <v>401</v>
       </c>
-      <c r="C133" t="s">
-        <v>402</v>
-      </c>
       <c r="D133" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E133">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A134" t="s">
+        <v>402</v>
+      </c>
+      <c r="B134" t="s">
         <v>403</v>
       </c>
-      <c r="B134" t="s">
+      <c r="C134" t="s">
         <v>404</v>
       </c>
-      <c r="C134" t="s">
-        <v>405</v>
-      </c>
       <c r="D134" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E134">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A135" t="s">
+        <v>405</v>
+      </c>
+      <c r="B135" t="s">
         <v>406</v>
       </c>
-      <c r="B135" t="s">
+      <c r="C135" t="s">
         <v>407</v>
       </c>
-      <c r="C135" t="s">
-        <v>408</v>
-      </c>
       <c r="D135" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E135">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A136" t="s">
+        <v>408</v>
+      </c>
+      <c r="B136" t="s">
         <v>409</v>
       </c>
-      <c r="B136" t="s">
+      <c r="C136" t="s">
         <v>410</v>
       </c>
-      <c r="C136" t="s">
-        <v>411</v>
-      </c>
       <c r="D136" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E136">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A137" t="s">
+        <v>411</v>
+      </c>
+      <c r="B137" t="s">
         <v>412</v>
       </c>
-      <c r="B137" t="s">
+      <c r="C137" t="s">
         <v>413</v>
       </c>
-      <c r="C137" t="s">
-        <v>414</v>
-      </c>
       <c r="D137" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E137">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A138" t="s">
+        <v>414</v>
+      </c>
+      <c r="B138" t="s">
         <v>415</v>
       </c>
-      <c r="B138" t="s">
+      <c r="C138" t="s">
         <v>416</v>
       </c>
-      <c r="C138" t="s">
-        <v>417</v>
-      </c>
       <c r="D138" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E138">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A139" t="s">
+        <v>417</v>
+      </c>
+      <c r="B139" t="s">
         <v>418</v>
       </c>
-      <c r="B139" t="s">
+      <c r="C139" t="s">
         <v>419</v>
       </c>
-      <c r="C139" t="s">
-        <v>420</v>
-      </c>
       <c r="D139" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E139">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A140" t="s">
+        <v>420</v>
+      </c>
+      <c r="B140" t="s">
         <v>421</v>
       </c>
-      <c r="B140" t="s">
+      <c r="C140" t="s">
         <v>422</v>
       </c>
-      <c r="C140" t="s">
-        <v>423</v>
-      </c>
       <c r="D140" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E140">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A141" t="s">
+        <v>423</v>
+      </c>
+      <c r="B141" t="s">
         <v>424</v>
       </c>
-      <c r="B141" t="s">
+      <c r="C141" t="s">
         <v>425</v>
       </c>
-      <c r="C141" t="s">
-        <v>426</v>
-      </c>
       <c r="D141" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E141">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A142" t="s">
+        <v>426</v>
+      </c>
+      <c r="B142" t="s">
         <v>427</v>
       </c>
-      <c r="B142" t="s">
+      <c r="C142" t="s">
         <v>428</v>
       </c>
-      <c r="C142" t="s">
-        <v>429</v>
-      </c>
       <c r="D142" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E142">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A143" t="s">
+        <v>429</v>
+      </c>
+      <c r="B143" t="s">
         <v>430</v>
       </c>
-      <c r="B143" t="s">
+      <c r="C143" t="s">
         <v>431</v>
       </c>
-      <c r="C143" t="s">
-        <v>432</v>
-      </c>
       <c r="D143" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E143">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A144" t="s">
+        <v>432</v>
+      </c>
+      <c r="B144" t="s">
         <v>433</v>
       </c>
-      <c r="B144" t="s">
+      <c r="C144" t="s">
         <v>434</v>
       </c>
-      <c r="C144" t="s">
-        <v>435</v>
-      </c>
       <c r="D144" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E144">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A145" t="s">
+        <v>435</v>
+      </c>
+      <c r="B145" t="s">
         <v>436</v>
       </c>
-      <c r="B145" t="s">
+      <c r="C145" t="s">
         <v>437</v>
       </c>
-      <c r="C145" t="s">
-        <v>438</v>
-      </c>
       <c r="D145" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E145">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A146" t="s">
+        <v>438</v>
+      </c>
+      <c r="B146" t="s">
         <v>439</v>
       </c>
-      <c r="B146" t="s">
+      <c r="C146" t="s">
         <v>440</v>
       </c>
-      <c r="C146" t="s">
-        <v>441</v>
-      </c>
       <c r="D146" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E146">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A147" t="s">
+        <v>441</v>
+      </c>
+      <c r="B147" t="s">
         <v>442</v>
       </c>
-      <c r="B147" t="s">
+      <c r="C147" t="s">
         <v>443</v>
       </c>
-      <c r="C147" t="s">
-        <v>444</v>
-      </c>
       <c r="D147" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E147">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A148" t="s">
+        <v>444</v>
+      </c>
+      <c r="B148" t="s">
         <v>445</v>
       </c>
-      <c r="B148" t="s">
+      <c r="C148" t="s">
         <v>446</v>
       </c>
-      <c r="C148" t="s">
-        <v>447</v>
-      </c>
       <c r="D148" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E148">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A149" t="s">
+        <v>447</v>
+      </c>
+      <c r="B149" t="s">
         <v>448</v>
       </c>
-      <c r="B149" t="s">
+      <c r="C149" t="s">
         <v>449</v>
       </c>
-      <c r="C149" t="s">
-        <v>450</v>
-      </c>
       <c r="D149" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E149">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A150" t="s">
+        <v>450</v>
+      </c>
+      <c r="B150" t="s">
         <v>451</v>
       </c>
-      <c r="B150" t="s">
+      <c r="C150" t="s">
         <v>452</v>
       </c>
-      <c r="C150" t="s">
-        <v>453</v>
-      </c>
       <c r="D150" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E150">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A151" t="s">
+        <v>453</v>
+      </c>
+      <c r="B151" t="s">
         <v>454</v>
       </c>
-      <c r="B151" t="s">
+      <c r="C151" t="s">
         <v>455</v>
       </c>
-      <c r="C151" t="s">
-        <v>456</v>
-      </c>
       <c r="D151" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E151">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A152" t="s">
+        <v>456</v>
+      </c>
+      <c r="B152" t="s">
         <v>457</v>
       </c>
-      <c r="B152" t="s">
+      <c r="C152" t="s">
         <v>458</v>
       </c>
-      <c r="C152" t="s">
-        <v>459</v>
-      </c>
       <c r="D152" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E152">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A153" t="s">
+        <v>459</v>
+      </c>
+      <c r="B153" t="s">
         <v>460</v>
       </c>
-      <c r="B153" t="s">
+      <c r="C153" t="s">
         <v>461</v>
       </c>
-      <c r="C153" t="s">
-        <v>462</v>
-      </c>
       <c r="D153" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E153">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A154" t="s">
+        <v>462</v>
+      </c>
+      <c r="B154" t="s">
         <v>463</v>
       </c>
-      <c r="B154" t="s">
+      <c r="C154" t="s">
         <v>464</v>
       </c>
-      <c r="C154" t="s">
-        <v>465</v>
-      </c>
       <c r="D154" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E154">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A155" t="s">
+        <v>465</v>
+      </c>
+      <c r="B155" t="s">
         <v>466</v>
       </c>
-      <c r="B155" t="s">
+      <c r="C155" t="s">
         <v>467</v>
       </c>
-      <c r="C155" t="s">
-        <v>468</v>
-      </c>
       <c r="D155" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E155">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A156" t="s">
+        <v>468</v>
+      </c>
+      <c r="B156" t="s">
         <v>469</v>
       </c>
-      <c r="B156" t="s">
+      <c r="C156" t="s">
         <v>470</v>
       </c>
-      <c r="C156" t="s">
-        <v>471</v>
-      </c>
       <c r="D156" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E156">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A157" t="s">
+        <v>471</v>
+      </c>
+      <c r="B157" t="s">
         <v>472</v>
       </c>
-      <c r="B157" t="s">
+      <c r="C157" t="s">
         <v>473</v>
       </c>
-      <c r="C157" t="s">
-        <v>474</v>
-      </c>
       <c r="D157" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E157">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A158" t="s">
+        <v>474</v>
+      </c>
+      <c r="B158" t="s">
         <v>475</v>
       </c>
-      <c r="B158" t="s">
+      <c r="C158" t="s">
         <v>476</v>
       </c>
-      <c r="C158" t="s">
+      <c r="D158" t="s">
         <v>477</v>
       </c>
-      <c r="D158" t="s">
-        <v>478</v>
-      </c>
       <c r="E158">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A159" t="s">
+        <v>478</v>
+      </c>
+      <c r="B159" t="s">
         <v>479</v>
       </c>
-      <c r="B159" t="s">
+      <c r="C159" t="s">
         <v>480</v>
       </c>
-      <c r="C159" t="s">
-        <v>481</v>
-      </c>
       <c r="D159" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="E159">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A160" t="s">
+        <v>481</v>
+      </c>
+      <c r="B160" t="s">
         <v>482</v>
       </c>
-      <c r="B160" t="s">
+      <c r="C160" t="s">
         <v>483</v>
       </c>
-      <c r="C160" t="s">
-        <v>484</v>
-      </c>
       <c r="D160" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="E160">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A161" t="s">
+        <v>484</v>
+      </c>
+      <c r="B161" t="s">
         <v>485</v>
       </c>
-      <c r="B161" t="s">
+      <c r="C161" t="s">
         <v>486</v>
       </c>
-      <c r="C161" t="s">
-        <v>487</v>
-      </c>
       <c r="D161" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="E161">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A162" t="s">
+        <v>487</v>
+      </c>
+      <c r="B162" t="s">
         <v>488</v>
       </c>
-      <c r="B162" t="s">
+      <c r="C162" t="s">
         <v>489</v>
       </c>
-      <c r="C162" t="s">
-        <v>490</v>
-      </c>
       <c r="D162" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="E162">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A163" t="s">
+        <v>490</v>
+      </c>
+      <c r="B163" t="s">
         <v>491</v>
       </c>
-      <c r="B163" t="s">
+      <c r="C163" t="s">
         <v>492</v>
       </c>
-      <c r="C163" t="s">
-        <v>493</v>
-      </c>
       <c r="D163" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="E163">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A164" t="s">
+        <v>493</v>
+      </c>
+      <c r="B164" t="s">
         <v>494</v>
       </c>
-      <c r="B164" t="s">
+      <c r="C164" t="s">
         <v>495</v>
       </c>
-      <c r="C164" t="s">
-        <v>496</v>
-      </c>
       <c r="D164" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="E164">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A165" t="s">
+        <v>496</v>
+      </c>
+      <c r="B165" t="s">
         <v>497</v>
       </c>
-      <c r="B165" t="s">
+      <c r="C165" t="s">
         <v>498</v>
       </c>
-      <c r="C165" t="s">
-        <v>499</v>
-      </c>
       <c r="D165" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="E165">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A166" t="s">
+        <v>499</v>
+      </c>
+      <c r="B166" t="s">
         <v>500</v>
       </c>
-      <c r="B166" t="s">
+      <c r="C166" t="s">
         <v>501</v>
       </c>
-      <c r="C166" t="s">
-        <v>502</v>
-      </c>
       <c r="D166" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="E166">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A167" t="s">
+        <v>502</v>
+      </c>
+      <c r="B167" t="s">
         <v>503</v>
       </c>
-      <c r="B167" t="s">
+      <c r="C167" t="s">
         <v>504</v>
       </c>
-      <c r="C167" t="s">
-        <v>505</v>
-      </c>
       <c r="D167" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="E167">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A168" t="s">
+        <v>505</v>
+      </c>
+      <c r="B168" t="s">
         <v>506</v>
       </c>
-      <c r="B168" t="s">
+      <c r="C168" t="s">
         <v>507</v>
       </c>
-      <c r="C168" t="s">
-        <v>508</v>
-      </c>
       <c r="D168" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="E168">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A169" t="s">
+        <v>508</v>
+      </c>
+      <c r="B169" t="s">
         <v>509</v>
       </c>
-      <c r="B169" t="s">
+      <c r="C169" t="s">
         <v>510</v>
       </c>
-      <c r="C169" t="s">
-        <v>511</v>
-      </c>
       <c r="D169" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="E169">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A170" t="s">
+        <v>511</v>
+      </c>
+      <c r="B170" t="s">
         <v>512</v>
       </c>
-      <c r="B170" t="s">
+      <c r="C170" t="s">
         <v>513</v>
       </c>
-      <c r="C170" t="s">
-        <v>514</v>
-      </c>
       <c r="D170" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="E170">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A171" t="s">
+        <v>514</v>
+      </c>
+      <c r="B171" t="s">
         <v>515</v>
       </c>
-      <c r="B171" t="s">
+      <c r="C171" t="s">
         <v>516</v>
       </c>
-      <c r="C171" t="s">
-        <v>517</v>
-      </c>
       <c r="D171" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="E171">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A172" t="s">
+        <v>517</v>
+      </c>
+      <c r="B172" t="s">
         <v>518</v>
       </c>
-      <c r="B172" t="s">
+      <c r="C172" t="s">
         <v>519</v>
       </c>
-      <c r="C172" t="s">
-        <v>520</v>
-      </c>
       <c r="D172" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="E172">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A173" t="s">
+        <v>520</v>
+      </c>
+      <c r="B173" t="s">
         <v>521</v>
       </c>
-      <c r="B173" t="s">
+      <c r="C173" t="s">
         <v>522</v>
       </c>
-      <c r="C173" t="s">
-        <v>523</v>
-      </c>
       <c r="D173" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="E173">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A174" t="s">
+        <v>523</v>
+      </c>
+      <c r="B174" t="s">
         <v>524</v>
       </c>
-      <c r="B174" t="s">
+      <c r="C174" t="s">
         <v>525</v>
       </c>
-      <c r="C174" t="s">
-        <v>526</v>
-      </c>
       <c r="D174" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="E174">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A175" t="s">
+        <v>526</v>
+      </c>
+      <c r="B175" t="s">
         <v>527</v>
       </c>
-      <c r="B175" t="s">
+      <c r="C175" t="s">
         <v>528</v>
       </c>
-      <c r="C175" t="s">
-        <v>529</v>
-      </c>
       <c r="D175" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="E175">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A176" t="s">
+        <v>529</v>
+      </c>
+      <c r="B176" t="s">
         <v>530</v>
       </c>
-      <c r="B176" t="s">
+      <c r="C176" t="s">
         <v>531</v>
       </c>
-      <c r="C176" t="s">
-        <v>532</v>
-      </c>
       <c r="D176" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="E176">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A177" t="s">
+        <v>532</v>
+      </c>
+      <c r="B177" t="s">
         <v>533</v>
       </c>
-      <c r="B177" t="s">
+      <c r="C177" t="s">
         <v>534</v>
       </c>
-      <c r="C177" t="s">
-        <v>535</v>
-      </c>
       <c r="D177" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="E177">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A178" t="s">
+        <v>535</v>
+      </c>
+      <c r="B178" t="s">
         <v>536</v>
       </c>
-      <c r="B178" t="s">
+      <c r="C178" t="s">
         <v>537</v>
       </c>
-      <c r="C178" t="s">
-        <v>538</v>
-      </c>
       <c r="D178" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="E178">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A179" t="s">
+        <v>538</v>
+      </c>
+      <c r="B179" t="s">
         <v>539</v>
       </c>
-      <c r="B179" t="s">
+      <c r="C179" t="s">
         <v>540</v>
       </c>
-      <c r="C179" t="s">
-        <v>541</v>
-      </c>
       <c r="D179" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="E179">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A180" t="s">
+        <v>541</v>
+      </c>
+      <c r="B180" t="s">
         <v>542</v>
       </c>
-      <c r="B180" t="s">
+      <c r="C180" t="s">
         <v>543</v>
       </c>
-      <c r="C180" t="s">
-        <v>544</v>
-      </c>
       <c r="D180" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="E180">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A181" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B181" t="s">
         <v>119</v>
       </c>
       <c r="C181" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="D181" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="E181">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A182" t="s">
+        <v>546</v>
+      </c>
+      <c r="B182" t="s">
         <v>547</v>
       </c>
-      <c r="B182" t="s">
+      <c r="C182" t="s">
         <v>548</v>
       </c>
-      <c r="C182" t="s">
-        <v>549</v>
-      </c>
       <c r="D182" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="E182">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A183" t="s">
+        <v>549</v>
+      </c>
+      <c r="B183" t="s">
         <v>550</v>
       </c>
-      <c r="B183" t="s">
+      <c r="C183" t="s">
         <v>551</v>
       </c>
-      <c r="C183" t="s">
-        <v>552</v>
-      </c>
       <c r="D183" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="E183">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A184" t="s">
+        <v>552</v>
+      </c>
+      <c r="B184" t="s">
         <v>553</v>
       </c>
-      <c r="B184" t="s">
+      <c r="C184" t="s">
         <v>554</v>
       </c>
-      <c r="C184" t="s">
-        <v>555</v>
-      </c>
       <c r="D184" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="E184">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A185" t="s">
+        <v>555</v>
+      </c>
+      <c r="B185" t="s">
         <v>556</v>
       </c>
-      <c r="B185" t="s">
+      <c r="C185" t="s">
         <v>557</v>
       </c>
-      <c r="C185" t="s">
-        <v>558</v>
-      </c>
       <c r="D185" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="E185">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A186" t="s">
+        <v>558</v>
+      </c>
+      <c r="B186" t="s">
         <v>559</v>
       </c>
-      <c r="B186" t="s">
+      <c r="C186" t="s">
         <v>560</v>
       </c>
-      <c r="C186" t="s">
-        <v>561</v>
-      </c>
       <c r="D186" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="E186">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A187" t="s">
+        <v>561</v>
+      </c>
+      <c r="B187" t="s">
         <v>562</v>
       </c>
-      <c r="B187" t="s">
+      <c r="C187" t="s">
         <v>563</v>
       </c>
-      <c r="C187" t="s">
-        <v>564</v>
-      </c>
       <c r="D187" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="E187">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A188" t="s">
+        <v>564</v>
+      </c>
+      <c r="B188" t="s">
         <v>565</v>
       </c>
-      <c r="B188" t="s">
+      <c r="C188" t="s">
         <v>566</v>
       </c>
-      <c r="C188" t="s">
-        <v>567</v>
-      </c>
       <c r="D188" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="E188">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A189" t="s">
+        <v>567</v>
+      </c>
+      <c r="B189" t="s">
         <v>568</v>
       </c>
-      <c r="B189" t="s">
+      <c r="C189" t="s">
         <v>569</v>
       </c>
-      <c r="C189" t="s">
-        <v>570</v>
-      </c>
       <c r="D189" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="E189">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A190" t="s">
+        <v>570</v>
+      </c>
+      <c r="B190" t="s">
         <v>571</v>
       </c>
-      <c r="B190" t="s">
+      <c r="C190" t="s">
         <v>572</v>
       </c>
-      <c r="C190" t="s">
-        <v>573</v>
-      </c>
       <c r="D190" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="E190">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A191" t="s">
+        <v>573</v>
+      </c>
+      <c r="B191" t="s">
         <v>574</v>
       </c>
-      <c r="B191" t="s">
+      <c r="C191" t="s">
         <v>575</v>
       </c>
-      <c r="C191" t="s">
-        <v>576</v>
-      </c>
       <c r="D191" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="E191">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A192" t="s">
+        <v>576</v>
+      </c>
+      <c r="B192" t="s">
         <v>577</v>
       </c>
-      <c r="B192" t="s">
+      <c r="C192" t="s">
         <v>578</v>
       </c>
-      <c r="C192" t="s">
-        <v>579</v>
-      </c>
       <c r="D192" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="E192">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A193" t="s">
+        <v>579</v>
+      </c>
+      <c r="B193" t="s">
         <v>580</v>
       </c>
-      <c r="B193" t="s">
+      <c r="C193" t="s">
         <v>581</v>
       </c>
-      <c r="C193" t="s">
-        <v>582</v>
-      </c>
       <c r="D193" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="E193">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A194" t="s">
+        <v>582</v>
+      </c>
+      <c r="B194" t="s">
         <v>583</v>
       </c>
-      <c r="B194" t="s">
+      <c r="C194" t="s">
         <v>584</v>
       </c>
-      <c r="C194" t="s">
-        <v>585</v>
-      </c>
       <c r="D194" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="E194">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A195" t="s">
+        <v>585</v>
+      </c>
+      <c r="B195" t="s">
         <v>586</v>
       </c>
-      <c r="B195" t="s">
+      <c r="C195" t="s">
         <v>587</v>
       </c>
-      <c r="C195" t="s">
-        <v>588</v>
-      </c>
       <c r="D195" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="E195">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A196" t="s">
+        <v>588</v>
+      </c>
+      <c r="B196" t="s">
         <v>589</v>
       </c>
-      <c r="B196" t="s">
+      <c r="C196" t="s">
         <v>590</v>
       </c>
-      <c r="C196" t="s">
+      <c r="D196" t="s">
         <v>591</v>
       </c>
-      <c r="D196" t="s">
-        <v>592</v>
-      </c>
       <c r="E196">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A197" t="s">
+        <v>592</v>
+      </c>
+      <c r="B197" t="s">
         <v>593</v>
       </c>
-      <c r="B197" t="s">
+      <c r="C197" t="s">
         <v>594</v>
       </c>
-      <c r="C197" t="s">
-        <v>595</v>
-      </c>
       <c r="D197" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="E197">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A198" t="s">
+        <v>595</v>
+      </c>
+      <c r="B198" t="s">
         <v>596</v>
       </c>
-      <c r="B198" t="s">
+      <c r="C198" t="s">
         <v>597</v>
       </c>
-      <c r="C198" t="s">
-        <v>598</v>
-      </c>
       <c r="D198" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="E198">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A199" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B199" t="s">
+        <v>598</v>
+      </c>
+      <c r="C199" t="s">
         <v>599</v>
       </c>
-      <c r="C199" t="s">
-        <v>600</v>
-      </c>
       <c r="D199" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="E199">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A200" t="s">
+        <v>600</v>
+      </c>
+      <c r="B200" t="s">
         <v>601</v>
       </c>
-      <c r="B200" t="s">
+      <c r="C200" t="s">
         <v>602</v>
       </c>
-      <c r="C200" t="s">
-        <v>603</v>
-      </c>
       <c r="D200" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="E200">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A201" t="s">
+        <v>603</v>
+      </c>
+      <c r="B201" t="s">
         <v>604</v>
       </c>
-      <c r="B201" t="s">
+      <c r="C201" t="s">
         <v>605</v>
       </c>
-      <c r="C201" t="s">
-        <v>606</v>
-      </c>
       <c r="D201" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="E201">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A202" t="s">
+        <v>606</v>
+      </c>
+      <c r="B202" t="s">
         <v>607</v>
       </c>
-      <c r="B202" t="s">
+      <c r="C202" t="s">
         <v>608</v>
       </c>
-      <c r="C202" t="s">
-        <v>609</v>
-      </c>
       <c r="D202" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="E202">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A203" t="s">
+        <v>609</v>
+      </c>
+      <c r="B203" t="s">
         <v>610</v>
       </c>
-      <c r="B203" t="s">
+      <c r="C203" t="s">
         <v>611</v>
       </c>
-      <c r="C203" t="s">
-        <v>612</v>
-      </c>
       <c r="D203" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="E203">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A204" t="s">
+        <v>612</v>
+      </c>
+      <c r="B204" t="s">
         <v>613</v>
       </c>
-      <c r="B204" t="s">
+      <c r="C204" t="s">
         <v>614</v>
       </c>
-      <c r="C204" t="s">
-        <v>615</v>
-      </c>
       <c r="D204" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="E204">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A205" t="s">
+        <v>615</v>
+      </c>
+      <c r="B205" t="s">
         <v>616</v>
       </c>
-      <c r="B205" t="s">
+      <c r="C205" t="s">
         <v>617</v>
       </c>
-      <c r="C205" t="s">
-        <v>618</v>
-      </c>
       <c r="D205" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="E205">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A206" t="s">
+        <v>618</v>
+      </c>
+      <c r="B206" t="s">
         <v>619</v>
       </c>
-      <c r="B206" t="s">
+      <c r="C206" t="s">
         <v>620</v>
       </c>
-      <c r="C206" t="s">
-        <v>621</v>
-      </c>
       <c r="D206" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="E206">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A207" t="s">
+        <v>621</v>
+      </c>
+      <c r="B207" t="s">
         <v>622</v>
       </c>
-      <c r="B207" t="s">
+      <c r="C207" t="s">
         <v>623</v>
       </c>
-      <c r="C207" t="s">
-        <v>624</v>
-      </c>
       <c r="D207" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="E207">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A208" t="s">
+        <v>624</v>
+      </c>
+      <c r="B208" t="s">
         <v>625</v>
       </c>
-      <c r="B208" t="s">
+      <c r="C208" t="s">
         <v>626</v>
       </c>
-      <c r="C208" t="s">
-        <v>627</v>
-      </c>
       <c r="D208" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="E208">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A209" t="s">
+        <v>627</v>
+      </c>
+      <c r="B209" t="s">
         <v>628</v>
       </c>
-      <c r="B209" t="s">
+      <c r="C209" t="s">
         <v>629</v>
       </c>
-      <c r="C209" t="s">
-        <v>630</v>
-      </c>
       <c r="D209" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="E209">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A210" t="s">
+        <v>630</v>
+      </c>
+      <c r="B210" t="s">
         <v>631</v>
       </c>
-      <c r="B210" t="s">
+      <c r="C210" t="s">
         <v>632</v>
       </c>
-      <c r="C210" t="s">
-        <v>633</v>
-      </c>
       <c r="D210" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="E210">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A211" t="s">
+        <v>633</v>
+      </c>
+      <c r="B211" t="s">
         <v>634</v>
       </c>
-      <c r="B211" t="s">
+      <c r="C211" t="s">
         <v>635</v>
       </c>
-      <c r="C211" t="s">
-        <v>636</v>
-      </c>
       <c r="D211" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="E211">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A212" t="s">
+        <v>636</v>
+      </c>
+      <c r="B212" t="s">
         <v>637</v>
-      </c>
-      <c r="B212" t="s">
-        <v>638</v>
       </c>
       <c r="C212" t="s">
         <v>2</v>
       </c>
       <c r="D212" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="E212">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A213" t="s">
+        <v>638</v>
+      </c>
+      <c r="B213" t="s">
         <v>639</v>
       </c>
-      <c r="B213" t="s">
+      <c r="C213" t="s">
         <v>640</v>
       </c>
-      <c r="C213" t="s">
-        <v>641</v>
-      </c>
       <c r="D213" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="E213">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A214" t="s">
+        <v>641</v>
+      </c>
+      <c r="B214" t="s">
         <v>642</v>
       </c>
-      <c r="B214" t="s">
+      <c r="C214" t="s">
         <v>643</v>
       </c>
-      <c r="C214" t="s">
-        <v>644</v>
-      </c>
       <c r="D214" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="E214">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A215" t="s">
+        <v>644</v>
+      </c>
+      <c r="B215" t="s">
         <v>645</v>
       </c>
-      <c r="B215" t="s">
+      <c r="C215" t="s">
         <v>646</v>
       </c>
-      <c r="C215" t="s">
+      <c r="D215" t="s">
         <v>647</v>
       </c>
-      <c r="D215" t="s">
-        <v>648</v>
-      </c>
       <c r="E215">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A216" t="s">
+        <v>648</v>
+      </c>
+      <c r="B216" t="s">
         <v>649</v>
       </c>
-      <c r="B216" t="s">
+      <c r="C216" t="s">
         <v>650</v>
       </c>
-      <c r="C216" t="s">
-        <v>651</v>
-      </c>
       <c r="D216" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E216">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A217" t="s">
+        <v>651</v>
+      </c>
+      <c r="B217" t="s">
         <v>652</v>
       </c>
-      <c r="B217" t="s">
+      <c r="C217" t="s">
         <v>653</v>
       </c>
-      <c r="C217" t="s">
-        <v>654</v>
-      </c>
       <c r="D217" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E217">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A218" t="s">
+        <v>654</v>
+      </c>
+      <c r="B218" t="s">
         <v>655</v>
       </c>
-      <c r="B218" t="s">
+      <c r="C218" t="s">
         <v>656</v>
       </c>
-      <c r="C218" t="s">
-        <v>657</v>
-      </c>
       <c r="D218" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E218">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A219" t="s">
+        <v>657</v>
+      </c>
+      <c r="B219" t="s">
         <v>658</v>
       </c>
-      <c r="B219" t="s">
+      <c r="C219" t="s">
         <v>659</v>
       </c>
-      <c r="C219" t="s">
-        <v>660</v>
-      </c>
       <c r="D219" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E219">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A220" t="s">
+        <v>660</v>
+      </c>
+      <c r="B220" t="s">
         <v>661</v>
       </c>
-      <c r="B220" t="s">
+      <c r="C220" t="s">
         <v>662</v>
       </c>
-      <c r="C220" t="s">
-        <v>663</v>
-      </c>
       <c r="D220" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E220">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A221" t="s">
+        <v>663</v>
+      </c>
+      <c r="B221" t="s">
         <v>664</v>
       </c>
-      <c r="B221" t="s">
+      <c r="C221" t="s">
         <v>665</v>
       </c>
-      <c r="C221" t="s">
-        <v>666</v>
-      </c>
       <c r="D221" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E221">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A222" t="s">
+        <v>666</v>
+      </c>
+      <c r="B222" t="s">
         <v>667</v>
       </c>
-      <c r="B222" t="s">
+      <c r="C222" t="s">
         <v>668</v>
       </c>
-      <c r="C222" t="s">
-        <v>669</v>
-      </c>
       <c r="D222" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E222">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A223" t="s">
+        <v>669</v>
+      </c>
+      <c r="B223" t="s">
         <v>670</v>
       </c>
-      <c r="B223" t="s">
+      <c r="C223" t="s">
         <v>671</v>
       </c>
-      <c r="C223" t="s">
-        <v>672</v>
-      </c>
       <c r="D223" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E223">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A224" t="s">
+        <v>672</v>
+      </c>
+      <c r="B224" t="s">
         <v>673</v>
       </c>
-      <c r="B224" t="s">
+      <c r="C224" t="s">
         <v>674</v>
       </c>
-      <c r="C224" t="s">
-        <v>675</v>
-      </c>
       <c r="D224" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E224">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A225" t="s">
+        <v>675</v>
+      </c>
+      <c r="B225" t="s">
         <v>676</v>
       </c>
-      <c r="B225" t="s">
+      <c r="C225" t="s">
         <v>677</v>
       </c>
-      <c r="C225" t="s">
-        <v>678</v>
-      </c>
       <c r="D225" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E225">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A226" t="s">
+        <v>678</v>
+      </c>
+      <c r="B226" t="s">
         <v>679</v>
       </c>
-      <c r="B226" t="s">
+      <c r="C226" t="s">
         <v>680</v>
       </c>
-      <c r="C226" t="s">
-        <v>681</v>
-      </c>
       <c r="D226" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E226">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A227" t="s">
+        <v>681</v>
+      </c>
+      <c r="B227" t="s">
         <v>682</v>
       </c>
-      <c r="B227" t="s">
+      <c r="C227" t="s">
         <v>683</v>
       </c>
-      <c r="C227" t="s">
-        <v>684</v>
-      </c>
       <c r="D227" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E227">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A228" t="s">
+        <v>684</v>
+      </c>
+      <c r="B228" t="s">
         <v>685</v>
       </c>
-      <c r="B228" t="s">
+      <c r="C228" t="s">
         <v>686</v>
       </c>
-      <c r="C228" t="s">
-        <v>687</v>
-      </c>
       <c r="D228" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E228">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A229" t="s">
+        <v>687</v>
+      </c>
+      <c r="B229" t="s">
         <v>688</v>
       </c>
-      <c r="B229" t="s">
-        <v>689</v>
-      </c>
       <c r="C229" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D229" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E229">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A230" t="s">
+        <v>689</v>
+      </c>
+      <c r="B230" t="s">
         <v>690</v>
       </c>
-      <c r="B230" t="s">
+      <c r="C230" t="s">
         <v>691</v>
       </c>
-      <c r="C230" t="s">
-        <v>692</v>
-      </c>
       <c r="D230" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E230">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A231" t="s">
+        <v>692</v>
+      </c>
+      <c r="B231" t="s">
         <v>693</v>
       </c>
-      <c r="B231" t="s">
+      <c r="C231" t="s">
         <v>694</v>
       </c>
-      <c r="C231" t="s">
-        <v>695</v>
-      </c>
       <c r="D231" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E231">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A232" t="s">
+        <v>695</v>
+      </c>
+      <c r="B232" t="s">
         <v>696</v>
       </c>
-      <c r="B232" t="s">
+      <c r="C232" t="s">
         <v>697</v>
       </c>
-      <c r="C232" t="s">
-        <v>698</v>
-      </c>
       <c r="D232" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E232">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A233" t="s">
+        <v>698</v>
+      </c>
+      <c r="B233" t="s">
         <v>699</v>
       </c>
-      <c r="B233" t="s">
+      <c r="C233" t="s">
         <v>700</v>
       </c>
-      <c r="C233" t="s">
-        <v>701</v>
-      </c>
       <c r="D233" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E233">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A234" t="s">
+        <v>701</v>
+      </c>
+      <c r="B234" t="s">
         <v>702</v>
       </c>
-      <c r="B234" t="s">
+      <c r="C234" t="s">
         <v>703</v>
       </c>
-      <c r="C234" t="s">
-        <v>704</v>
-      </c>
       <c r="D234" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E234">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A235" t="s">
+        <v>704</v>
+      </c>
+      <c r="B235" t="s">
         <v>705</v>
       </c>
-      <c r="B235" t="s">
+      <c r="C235" t="s">
         <v>706</v>
       </c>
-      <c r="C235" t="s">
-        <v>707</v>
-      </c>
       <c r="D235" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E235">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A236" t="s">
+        <v>707</v>
+      </c>
+      <c r="B236" t="s">
         <v>708</v>
       </c>
-      <c r="B236" t="s">
+      <c r="C236" t="s">
         <v>709</v>
       </c>
-      <c r="C236" t="s">
-        <v>710</v>
-      </c>
       <c r="D236" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E236">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A237" t="s">
+        <v>710</v>
+      </c>
+      <c r="B237" t="s">
         <v>711</v>
       </c>
-      <c r="B237" t="s">
+      <c r="C237" t="s">
         <v>712</v>
       </c>
-      <c r="C237" t="s">
-        <v>713</v>
-      </c>
       <c r="D237" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E237">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A238" t="s">
+        <v>713</v>
+      </c>
+      <c r="B238" t="s">
         <v>714</v>
       </c>
-      <c r="B238" t="s">
+      <c r="C238" t="s">
         <v>715</v>
       </c>
-      <c r="C238" t="s">
-        <v>716</v>
-      </c>
       <c r="D238" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E238">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A239" t="s">
+        <v>716</v>
+      </c>
+      <c r="B239" t="s">
+        <v>634</v>
+      </c>
+      <c r="C239" t="s">
         <v>717</v>
       </c>
-      <c r="B239" t="s">
-        <v>635</v>
-      </c>
-      <c r="C239" t="s">
-        <v>718</v>
-      </c>
       <c r="D239" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E239">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A240" t="s">
+        <v>718</v>
+      </c>
+      <c r="B240" t="s">
         <v>719</v>
       </c>
-      <c r="B240" t="s">
+      <c r="C240" t="s">
         <v>720</v>
       </c>
-      <c r="C240" t="s">
-        <v>721</v>
-      </c>
       <c r="D240" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E240">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A241" t="s">
+        <v>721</v>
+      </c>
+      <c r="B241" t="s">
         <v>722</v>
       </c>
-      <c r="B241" t="s">
+      <c r="C241" t="s">
         <v>723</v>
       </c>
-      <c r="C241" t="s">
-        <v>724</v>
-      </c>
       <c r="D241" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E241">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A242" t="s">
+        <v>724</v>
+      </c>
+      <c r="B242" t="s">
         <v>725</v>
       </c>
-      <c r="B242" t="s">
+      <c r="C242" t="s">
         <v>726</v>
       </c>
-      <c r="C242" t="s">
-        <v>727</v>
-      </c>
       <c r="D242" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E242">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A243" t="s">
+        <v>727</v>
+      </c>
+      <c r="B243" t="s">
         <v>728</v>
       </c>
-      <c r="B243" t="s">
+      <c r="C243" t="s">
         <v>729</v>
       </c>
-      <c r="C243" t="s">
-        <v>730</v>
-      </c>
       <c r="D243" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E243">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A244" t="s">
+        <v>730</v>
+      </c>
+      <c r="B244" t="s">
         <v>731</v>
       </c>
-      <c r="B244" t="s">
+      <c r="C244" t="s">
         <v>732</v>
       </c>
-      <c r="C244" t="s">
-        <v>733</v>
-      </c>
       <c r="D244" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E244">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A245" t="s">
+        <v>733</v>
+      </c>
+      <c r="B245" t="s">
         <v>734</v>
       </c>
-      <c r="B245" t="s">
+      <c r="C245" t="s">
         <v>735</v>
       </c>
-      <c r="C245" t="s">
-        <v>736</v>
-      </c>
       <c r="D245" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E245">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A246" t="s">
+        <v>736</v>
+      </c>
+      <c r="B246" t="s">
         <v>737</v>
       </c>
-      <c r="B246" t="s">
+      <c r="C246" t="s">
         <v>738</v>
       </c>
-      <c r="C246" t="s">
-        <v>739</v>
-      </c>
       <c r="D246" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E246">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A247" t="s">
+        <v>739</v>
+      </c>
+      <c r="B247" t="s">
         <v>740</v>
       </c>
-      <c r="B247" t="s">
+      <c r="C247" t="s">
         <v>741</v>
       </c>
-      <c r="C247" t="s">
-        <v>742</v>
-      </c>
       <c r="D247" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E247">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A248" t="s">
+        <v>742</v>
+      </c>
+      <c r="B248" t="s">
         <v>743</v>
       </c>
-      <c r="B248" t="s">
+      <c r="C248" t="s">
         <v>744</v>
       </c>
-      <c r="C248" t="s">
-        <v>745</v>
-      </c>
       <c r="D248" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E248">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A249" t="s">
+        <v>745</v>
+      </c>
+      <c r="B249" t="s">
         <v>746</v>
       </c>
-      <c r="B249" t="s">
+      <c r="C249" t="s">
         <v>747</v>
       </c>
-      <c r="C249" t="s">
-        <v>748</v>
-      </c>
       <c r="D249" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E249">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A250" t="s">
+        <v>748</v>
+      </c>
+      <c r="B250" t="s">
+        <v>699</v>
+      </c>
+      <c r="C250" t="s">
         <v>749</v>
       </c>
-      <c r="B250" t="s">
-        <v>700</v>
-      </c>
-      <c r="C250" t="s">
-        <v>750</v>
-      </c>
       <c r="D250" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E250">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A251" t="s">
+        <v>750</v>
+      </c>
+      <c r="B251" t="s">
         <v>751</v>
       </c>
-      <c r="B251" t="s">
+      <c r="C251" t="s">
         <v>752</v>
       </c>
-      <c r="C251" t="s">
-        <v>753</v>
-      </c>
       <c r="D251" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E251">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A252" t="s">
+        <v>753</v>
+      </c>
+      <c r="B252" t="s">
         <v>754</v>
       </c>
-      <c r="B252" t="s">
+      <c r="C252" t="s">
         <v>755</v>
       </c>
-      <c r="C252" t="s">
-        <v>756</v>
-      </c>
       <c r="D252" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E252">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A253" t="s">
+        <v>756</v>
+      </c>
+      <c r="B253" t="s">
         <v>757</v>
       </c>
-      <c r="B253" t="s">
+      <c r="C253" t="s">
         <v>758</v>
       </c>
-      <c r="C253" t="s">
-        <v>759</v>
-      </c>
       <c r="D253" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E253">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A254" t="s">
+        <v>759</v>
+      </c>
+      <c r="B254" t="s">
         <v>760</v>
       </c>
-      <c r="B254" t="s">
+      <c r="C254" t="s">
         <v>761</v>
       </c>
-      <c r="C254" t="s">
-        <v>762</v>
-      </c>
       <c r="D254" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E254">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A255" t="s">
+        <v>762</v>
+      </c>
+      <c r="B255" t="s">
         <v>763</v>
       </c>
-      <c r="B255" t="s">
+      <c r="C255" t="s">
         <v>764</v>
       </c>
-      <c r="C255" t="s">
-        <v>765</v>
-      </c>
       <c r="D255" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E255">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A256" t="s">
+        <v>765</v>
+      </c>
+      <c r="B256" t="s">
         <v>766</v>
       </c>
-      <c r="B256" t="s">
+      <c r="C256" t="s">
         <v>767</v>
       </c>
-      <c r="C256" t="s">
-        <v>768</v>
-      </c>
       <c r="D256" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E256">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A257" t="s">
+        <v>768</v>
+      </c>
+      <c r="B257" t="s">
         <v>769</v>
       </c>
-      <c r="B257" t="s">
+      <c r="C257" t="s">
         <v>770</v>
       </c>
-      <c r="C257" t="s">
-        <v>771</v>
-      </c>
       <c r="D257" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E257">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A258" t="s">
+        <v>771</v>
+      </c>
+      <c r="B258" t="s">
         <v>772</v>
       </c>
-      <c r="B258" t="s">
+      <c r="C258" t="s">
         <v>773</v>
       </c>
-      <c r="C258" t="s">
-        <v>774</v>
-      </c>
       <c r="D258" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E258">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A259" t="s">
+        <v>774</v>
+      </c>
+      <c r="B259" t="s">
         <v>775</v>
       </c>
-      <c r="B259" t="s">
+      <c r="C259" t="s">
         <v>776</v>
       </c>
-      <c r="C259" t="s">
-        <v>777</v>
-      </c>
       <c r="D259" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E259">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A260" t="s">
+        <v>777</v>
+      </c>
+      <c r="B260" t="s">
         <v>778</v>
       </c>
-      <c r="B260" t="s">
+      <c r="C260" t="s">
         <v>779</v>
       </c>
-      <c r="C260" t="s">
-        <v>780</v>
-      </c>
       <c r="D260" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E260">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A261" t="s">
+        <v>780</v>
+      </c>
+      <c r="B261" t="s">
         <v>781</v>
       </c>
-      <c r="B261" t="s">
+      <c r="C261" t="s">
         <v>782</v>
       </c>
-      <c r="C261" t="s">
-        <v>783</v>
-      </c>
       <c r="D261" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E261">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A262" t="s">
+        <v>783</v>
+      </c>
+      <c r="B262" t="s">
         <v>784</v>
       </c>
-      <c r="B262" t="s">
+      <c r="C262" t="s">
         <v>785</v>
       </c>
-      <c r="C262" t="s">
-        <v>786</v>
-      </c>
       <c r="D262" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E262">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A263" t="s">
+        <v>786</v>
+      </c>
+      <c r="B263" t="s">
         <v>787</v>
       </c>
-      <c r="B263" t="s">
+      <c r="C263" t="s">
         <v>788</v>
       </c>
-      <c r="C263" t="s">
-        <v>789</v>
-      </c>
       <c r="D263" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E263">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A264" t="s">
+        <v>789</v>
+      </c>
+      <c r="B264" t="s">
         <v>790</v>
       </c>
-      <c r="B264" t="s">
+      <c r="C264" t="s">
         <v>791</v>
       </c>
-      <c r="C264" t="s">
-        <v>792</v>
-      </c>
       <c r="D264" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E264">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A265" t="s">
+        <v>792</v>
+      </c>
+      <c r="B265" t="s">
         <v>793</v>
       </c>
-      <c r="B265" t="s">
+      <c r="C265" t="s">
         <v>794</v>
       </c>
-      <c r="C265" t="s">
-        <v>795</v>
-      </c>
       <c r="D265" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E265">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A266" t="s">
+        <v>795</v>
+      </c>
+      <c r="B266" t="s">
         <v>796</v>
       </c>
-      <c r="B266" t="s">
+      <c r="C266" t="s">
         <v>797</v>
       </c>
-      <c r="C266" t="s">
-        <v>798</v>
-      </c>
       <c r="D266" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E266">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A267" t="s">
+        <v>798</v>
+      </c>
+      <c r="B267" t="s">
         <v>799</v>
       </c>
-      <c r="B267" t="s">
+      <c r="C267" t="s">
         <v>800</v>
       </c>
-      <c r="C267" t="s">
-        <v>801</v>
-      </c>
       <c r="D267" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E267">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A268" t="s">
+        <v>801</v>
+      </c>
+      <c r="B268" t="s">
         <v>802</v>
       </c>
-      <c r="B268" t="s">
+      <c r="C268" t="s">
         <v>803</v>
       </c>
-      <c r="C268" t="s">
-        <v>804</v>
-      </c>
       <c r="D268" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E268">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A269" t="s">
+        <v>804</v>
+      </c>
+      <c r="B269" t="s">
         <v>805</v>
       </c>
-      <c r="B269" t="s">
+      <c r="C269" t="s">
         <v>806</v>
       </c>
-      <c r="C269" t="s">
-        <v>807</v>
-      </c>
       <c r="D269" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E269">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A270" t="s">
+        <v>807</v>
+      </c>
+      <c r="B270" t="s">
         <v>808</v>
       </c>
-      <c r="B270" t="s">
+      <c r="C270" t="s">
         <v>809</v>
       </c>
-      <c r="C270" t="s">
-        <v>810</v>
-      </c>
       <c r="D270" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E270">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A271" t="s">
+        <v>810</v>
+      </c>
+      <c r="B271" t="s">
         <v>811</v>
       </c>
-      <c r="B271" t="s">
+      <c r="C271" t="s">
         <v>812</v>
       </c>
-      <c r="C271" t="s">
-        <v>813</v>
-      </c>
       <c r="D271" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E271">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A272" t="s">
+        <v>813</v>
+      </c>
+      <c r="B272" t="s">
         <v>814</v>
       </c>
-      <c r="B272" t="s">
+      <c r="C272" t="s">
         <v>815</v>
       </c>
-      <c r="C272" t="s">
-        <v>816</v>
-      </c>
       <c r="D272" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E272">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A273" t="s">
+        <v>816</v>
+      </c>
+      <c r="B273" t="s">
         <v>817</v>
       </c>
-      <c r="B273" t="s">
+      <c r="C273" t="s">
         <v>818</v>
       </c>
-      <c r="C273" t="s">
-        <v>819</v>
-      </c>
       <c r="D273" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E273">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A274" t="s">
+        <v>819</v>
+      </c>
+      <c r="B274" t="s">
         <v>820</v>
       </c>
-      <c r="B274" t="s">
+      <c r="C274" t="s">
         <v>821</v>
       </c>
-      <c r="C274" t="s">
-        <v>822</v>
-      </c>
       <c r="D274" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E274">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A275" t="s">
+        <v>822</v>
+      </c>
+      <c r="B275" t="s">
         <v>823</v>
       </c>
-      <c r="B275" t="s">
+      <c r="C275" t="s">
         <v>824</v>
       </c>
-      <c r="C275" t="s">
-        <v>825</v>
-      </c>
       <c r="D275" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E275">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A276" t="s">
+        <v>825</v>
+      </c>
+      <c r="B276" t="s">
         <v>826</v>
       </c>
-      <c r="B276" t="s">
+      <c r="C276" t="s">
         <v>827</v>
       </c>
-      <c r="C276" t="s">
-        <v>828</v>
-      </c>
       <c r="D276" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E276">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A277" t="s">
+        <v>828</v>
+      </c>
+      <c r="B277" t="s">
         <v>829</v>
       </c>
-      <c r="B277" t="s">
+      <c r="C277" t="s">
         <v>830</v>
       </c>
-      <c r="C277" t="s">
-        <v>831</v>
-      </c>
       <c r="D277" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E277">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A278" t="s">
+        <v>831</v>
+      </c>
+      <c r="B278" t="s">
         <v>832</v>
       </c>
-      <c r="B278" t="s">
+      <c r="C278" t="s">
         <v>833</v>
       </c>
-      <c r="C278" t="s">
-        <v>834</v>
-      </c>
       <c r="D278" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E278">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A279" t="s">
+        <v>834</v>
+      </c>
+      <c r="B279" t="s">
         <v>835</v>
       </c>
-      <c r="B279" t="s">
+      <c r="C279" t="s">
         <v>836</v>
       </c>
-      <c r="C279" t="s">
-        <v>837</v>
-      </c>
       <c r="D279" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E279">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A280" t="s">
+        <v>837</v>
+      </c>
+      <c r="B280" t="s">
         <v>838</v>
       </c>
-      <c r="B280" t="s">
+      <c r="C280" t="s">
         <v>839</v>
       </c>
-      <c r="C280" t="s">
-        <v>840</v>
-      </c>
       <c r="D280" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E280">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A281" t="s">
+        <v>840</v>
+      </c>
+      <c r="B281" t="s">
         <v>841</v>
       </c>
-      <c r="B281" t="s">
+      <c r="C281" t="s">
         <v>842</v>
       </c>
-      <c r="C281" t="s">
-        <v>843</v>
-      </c>
       <c r="D281" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E281">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A282" t="s">
+        <v>843</v>
+      </c>
+      <c r="B282" t="s">
         <v>844</v>
       </c>
-      <c r="B282" t="s">
+      <c r="C282" t="s">
         <v>845</v>
       </c>
-      <c r="C282" t="s">
-        <v>846</v>
-      </c>
       <c r="D282" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E282">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A283" t="s">
+        <v>846</v>
+      </c>
+      <c r="B283" t="s">
+        <v>844</v>
+      </c>
+      <c r="C283" t="s">
         <v>847</v>
       </c>
-      <c r="B283" t="s">
-        <v>845</v>
-      </c>
-      <c r="C283" t="s">
-        <v>848</v>
-      </c>
       <c r="D283" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E283">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A284" t="s">
+        <v>848</v>
+      </c>
+      <c r="B284" t="s">
         <v>849</v>
       </c>
-      <c r="B284" t="s">
+      <c r="C284" t="s">
         <v>850</v>
       </c>
-      <c r="C284" t="s">
-        <v>851</v>
-      </c>
       <c r="D284" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E284">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A285" t="s">
+        <v>851</v>
+      </c>
+      <c r="B285" t="s">
         <v>852</v>
       </c>
-      <c r="B285" t="s">
-        <v>853</v>
-      </c>
       <c r="C285" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="D285" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E285">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A286" t="s">
+        <v>853</v>
+      </c>
+      <c r="B286" t="s">
         <v>854</v>
       </c>
-      <c r="B286" t="s">
+      <c r="C286" t="s">
         <v>855</v>
       </c>
-      <c r="C286" t="s">
-        <v>856</v>
-      </c>
       <c r="D286" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E286">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A287" t="s">
+        <v>856</v>
+      </c>
+      <c r="B287" t="s">
         <v>857</v>
       </c>
-      <c r="B287" t="s">
+      <c r="C287" t="s">
         <v>858</v>
       </c>
-      <c r="C287" t="s">
-        <v>859</v>
-      </c>
       <c r="D287" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E287">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A288" t="s">
+        <v>859</v>
+      </c>
+      <c r="B288" t="s">
         <v>860</v>
       </c>
-      <c r="B288" t="s">
+      <c r="C288" t="s">
         <v>861</v>
       </c>
-      <c r="C288" t="s">
-        <v>862</v>
-      </c>
       <c r="D288" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E288">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A289" t="s">
+        <v>862</v>
+      </c>
+      <c r="B289" t="s">
         <v>863</v>
       </c>
-      <c r="B289" t="s">
+      <c r="C289" t="s">
         <v>864</v>
       </c>
-      <c r="C289" t="s">
-        <v>865</v>
-      </c>
       <c r="D289" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E289">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A290" t="s">
+        <v>865</v>
+      </c>
+      <c r="B290" t="s">
         <v>866</v>
       </c>
-      <c r="B290" t="s">
+      <c r="C290" t="s">
         <v>867</v>
       </c>
-      <c r="C290" t="s">
-        <v>868</v>
-      </c>
       <c r="D290" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E290">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A291" t="s">
+        <v>868</v>
+      </c>
+      <c r="B291" t="s">
         <v>869</v>
       </c>
-      <c r="B291" t="s">
+      <c r="C291" t="s">
         <v>870</v>
       </c>
-      <c r="C291" t="s">
-        <v>871</v>
-      </c>
       <c r="D291" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E291">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A292" t="s">
+        <v>871</v>
+      </c>
+      <c r="B292" t="s">
         <v>872</v>
       </c>
-      <c r="B292" t="s">
+      <c r="C292" t="s">
         <v>873</v>
       </c>
-      <c r="C292" t="s">
-        <v>874</v>
-      </c>
       <c r="D292" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E292">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A293" t="s">
+        <v>874</v>
+      </c>
+      <c r="B293" t="s">
         <v>875</v>
       </c>
-      <c r="B293" t="s">
+      <c r="C293" t="s">
         <v>876</v>
       </c>
-      <c r="C293" t="s">
-        <v>877</v>
-      </c>
       <c r="D293" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E293">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A294" t="s">
+        <v>877</v>
+      </c>
+      <c r="B294" t="s">
         <v>878</v>
       </c>
-      <c r="B294" t="s">
+      <c r="C294" t="s">
         <v>879</v>
       </c>
-      <c r="C294" t="s">
-        <v>880</v>
-      </c>
       <c r="D294" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E294">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A295" t="s">
+        <v>880</v>
+      </c>
+      <c r="B295" t="s">
         <v>881</v>
       </c>
-      <c r="B295" t="s">
-        <v>882</v>
-      </c>
       <c r="C295" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="D295" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E295">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A296" t="s">
+        <v>882</v>
+      </c>
+      <c r="B296" t="s">
         <v>883</v>
       </c>
-      <c r="B296" t="s">
+      <c r="C296" t="s">
         <v>884</v>
       </c>
-      <c r="C296" t="s">
-        <v>885</v>
-      </c>
       <c r="D296" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E296">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A297" t="s">
+        <v>885</v>
+      </c>
+      <c r="B297" t="s">
         <v>886</v>
       </c>
-      <c r="B297" t="s">
+      <c r="C297" t="s">
         <v>887</v>
       </c>
-      <c r="C297" t="s">
-        <v>888</v>
-      </c>
       <c r="D297" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E297">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A298" t="s">
+        <v>888</v>
+      </c>
+      <c r="B298" t="s">
         <v>889</v>
       </c>
-      <c r="B298" t="s">
+      <c r="C298" t="s">
         <v>890</v>
       </c>
-      <c r="C298" t="s">
-        <v>891</v>
-      </c>
       <c r="D298" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E298">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A299" t="s">
+        <v>891</v>
+      </c>
+      <c r="B299" t="s">
+        <v>518</v>
+      </c>
+      <c r="C299" t="s">
         <v>892</v>
       </c>
-      <c r="B299" t="s">
-        <v>519</v>
-      </c>
-      <c r="C299" t="s">
-        <v>893</v>
-      </c>
       <c r="D299" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E299">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A300" t="s">
+        <v>893</v>
+      </c>
+      <c r="B300" t="s">
         <v>894</v>
       </c>
-      <c r="B300" t="s">
+      <c r="C300" t="s">
         <v>895</v>
       </c>
-      <c r="C300" t="s">
-        <v>896</v>
-      </c>
       <c r="D300" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E300">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A301" t="s">
+        <v>896</v>
+      </c>
+      <c r="B301" t="s">
         <v>897</v>
-      </c>
-      <c r="B301" t="s">
-        <v>898</v>
       </c>
       <c r="C301" t="s">
         <v>151</v>
       </c>
       <c r="D301" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E301">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="302" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A302" t="s">
+        <v>898</v>
+      </c>
+      <c r="B302" t="s">
         <v>899</v>
       </c>
-      <c r="B302" t="s">
+      <c r="C302" t="s">
         <v>900</v>
       </c>
-      <c r="C302" t="s">
-        <v>901</v>
-      </c>
       <c r="D302" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E302">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A303" t="s">
+        <v>901</v>
+      </c>
+      <c r="B303" t="s">
         <v>902</v>
       </c>
-      <c r="B303" t="s">
+      <c r="C303" t="s">
         <v>903</v>
       </c>
-      <c r="C303" t="s">
-        <v>904</v>
-      </c>
       <c r="D303" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E303">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A304" t="s">
+        <v>904</v>
+      </c>
+      <c r="B304" t="s">
         <v>905</v>
       </c>
-      <c r="B304" t="s">
+      <c r="C304" t="s">
         <v>906</v>
       </c>
-      <c r="C304" t="s">
-        <v>907</v>
-      </c>
       <c r="D304" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E304">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A305" t="s">
+        <v>907</v>
+      </c>
+      <c r="B305" t="s">
         <v>908</v>
       </c>
-      <c r="B305" t="s">
+      <c r="C305" t="s">
         <v>909</v>
       </c>
-      <c r="C305" t="s">
-        <v>910</v>
-      </c>
       <c r="D305" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E305">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A306" t="s">
+        <v>910</v>
+      </c>
+      <c r="B306" t="s">
         <v>911</v>
       </c>
-      <c r="B306" t="s">
+      <c r="C306" t="s">
         <v>912</v>
       </c>
-      <c r="C306" t="s">
-        <v>913</v>
-      </c>
       <c r="D306" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E306">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A307" t="s">
+        <v>913</v>
+      </c>
+      <c r="B307" t="s">
         <v>914</v>
       </c>
-      <c r="B307" t="s">
+      <c r="C307" t="s">
         <v>915</v>
       </c>
-      <c r="C307" t="s">
-        <v>916</v>
-      </c>
       <c r="D307" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E307">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A308" t="s">
+        <v>916</v>
+      </c>
+      <c r="B308" t="s">
         <v>917</v>
       </c>
-      <c r="B308" t="s">
+      <c r="C308" t="s">
         <v>918</v>
       </c>
-      <c r="C308" t="s">
-        <v>919</v>
-      </c>
       <c r="D308" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E308">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A309" t="s">
+        <v>919</v>
+      </c>
+      <c r="B309" t="s">
         <v>920</v>
       </c>
-      <c r="B309" t="s">
+      <c r="C309" t="s">
         <v>921</v>
       </c>
-      <c r="C309" t="s">
-        <v>922</v>
-      </c>
       <c r="D309" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E309">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A310" t="s">
+        <v>922</v>
+      </c>
+      <c r="B310" t="s">
         <v>923</v>
       </c>
-      <c r="B310" t="s">
+      <c r="C310" t="s">
         <v>924</v>
       </c>
-      <c r="C310" t="s">
-        <v>925</v>
-      </c>
       <c r="D310" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E310">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A311" t="s">
+        <v>925</v>
+      </c>
+      <c r="B311" t="s">
         <v>926</v>
       </c>
-      <c r="B311" t="s">
+      <c r="C311" t="s">
         <v>927</v>
       </c>
-      <c r="C311" t="s">
-        <v>928</v>
-      </c>
       <c r="D311" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E311">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A312" t="s">
+        <v>928</v>
+      </c>
+      <c r="B312" t="s">
         <v>929</v>
       </c>
-      <c r="B312" t="s">
+      <c r="C312" t="s">
         <v>930</v>
       </c>
-      <c r="C312" t="s">
-        <v>931</v>
-      </c>
       <c r="D312" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E312">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A313" t="s">
+        <v>931</v>
+      </c>
+      <c r="B313" t="s">
         <v>932</v>
       </c>
-      <c r="B313" t="s">
+      <c r="C313" t="s">
         <v>933</v>
       </c>
-      <c r="C313" t="s">
-        <v>934</v>
-      </c>
       <c r="D313" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E313">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A314" t="s">
+        <v>934</v>
+      </c>
+      <c r="B314" t="s">
         <v>935</v>
       </c>
-      <c r="B314" t="s">
+      <c r="C314" t="s">
         <v>936</v>
       </c>
-      <c r="C314" t="s">
-        <v>937</v>
-      </c>
       <c r="D314" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E314">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A315" t="s">
+        <v>937</v>
+      </c>
+      <c r="B315" t="s">
         <v>938</v>
       </c>
-      <c r="B315" t="s">
+      <c r="C315" t="s">
         <v>939</v>
       </c>
-      <c r="C315" t="s">
-        <v>940</v>
-      </c>
       <c r="D315" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E315">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A316" t="s">
+        <v>940</v>
+      </c>
+      <c r="B316" t="s">
         <v>941</v>
       </c>
-      <c r="B316" t="s">
+      <c r="C316" t="s">
         <v>942</v>
       </c>
-      <c r="C316" t="s">
-        <v>943</v>
-      </c>
       <c r="D316" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E316">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A317" t="s">
+        <v>943</v>
+      </c>
+      <c r="B317" t="s">
         <v>944</v>
       </c>
-      <c r="B317" t="s">
+      <c r="C317" t="s">
         <v>945</v>
       </c>
-      <c r="C317" t="s">
-        <v>946</v>
-      </c>
       <c r="D317" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E317">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A318" t="s">
+        <v>946</v>
+      </c>
+      <c r="B318" t="s">
         <v>947</v>
       </c>
-      <c r="B318" t="s">
+      <c r="C318" t="s">
         <v>948</v>
       </c>
-      <c r="C318" t="s">
-        <v>949</v>
-      </c>
       <c r="D318" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E318">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A319" t="s">
+        <v>949</v>
+      </c>
+      <c r="B319" t="s">
         <v>950</v>
       </c>
-      <c r="B319" t="s">
+      <c r="C319" t="s">
         <v>951</v>
       </c>
-      <c r="C319" t="s">
-        <v>952</v>
-      </c>
       <c r="D319" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E319">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="320" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A320" t="s">
+        <v>952</v>
+      </c>
+      <c r="B320" t="s">
         <v>953</v>
       </c>
-      <c r="B320" t="s">
+      <c r="C320" t="s">
         <v>954</v>
       </c>
-      <c r="C320" t="s">
-        <v>955</v>
-      </c>
       <c r="D320" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E320">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="321" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A321" t="s">
+        <v>955</v>
+      </c>
+      <c r="B321" t="s">
         <v>956</v>
       </c>
-      <c r="B321" t="s">
+      <c r="C321" t="s">
         <v>957</v>
       </c>
-      <c r="C321" t="s">
-        <v>958</v>
-      </c>
       <c r="D321" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E321">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="322" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A322" t="s">
+        <v>958</v>
+      </c>
+      <c r="B322" t="s">
         <v>959</v>
       </c>
-      <c r="B322" t="s">
+      <c r="C322" t="s">
         <v>960</v>
       </c>
-      <c r="C322" t="s">
-        <v>961</v>
-      </c>
       <c r="D322" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E322">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="323" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A323" t="s">
+        <v>961</v>
+      </c>
+      <c r="B323" t="s">
         <v>962</v>
       </c>
-      <c r="B323" t="s">
+      <c r="C323" t="s">
         <v>963</v>
       </c>
-      <c r="C323" t="s">
-        <v>964</v>
-      </c>
       <c r="D323" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E323">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="324" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A324" t="s">
+        <v>964</v>
+      </c>
+      <c r="B324" t="s">
+        <v>1268</v>
+      </c>
+      <c r="C324" t="s">
+        <v>656</v>
+      </c>
+      <c r="D324" t="s">
         <v>965</v>
       </c>
-      <c r="C324" t="s">
-        <v>657</v>
-      </c>
-      <c r="D324" t="s">
-        <v>966</v>
-      </c>
       <c r="E324">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="325" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A325" t="s">
+        <v>966</v>
+      </c>
+      <c r="B325" t="s">
         <v>967</v>
       </c>
-      <c r="B325" t="s">
+      <c r="C325" t="s">
         <v>968</v>
       </c>
-      <c r="C325" t="s">
-        <v>969</v>
-      </c>
       <c r="D325" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="E325">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="326" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A326" t="s">
+        <v>969</v>
+      </c>
+      <c r="B326" t="s">
         <v>970</v>
       </c>
-      <c r="B326" t="s">
+      <c r="C326" t="s">
         <v>971</v>
       </c>
-      <c r="C326" t="s">
-        <v>972</v>
-      </c>
       <c r="D326" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="E326">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="327" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A327" t="s">
+        <v>972</v>
+      </c>
+      <c r="B327" t="s">
         <v>973</v>
       </c>
-      <c r="B327" t="s">
+      <c r="C327" t="s">
         <v>974</v>
       </c>
-      <c r="C327" t="s">
-        <v>975</v>
-      </c>
       <c r="D327" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="E327">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="328" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A328" t="s">
+        <v>975</v>
+      </c>
+      <c r="B328" t="s">
         <v>976</v>
       </c>
-      <c r="B328" t="s">
+      <c r="C328" t="s">
         <v>977</v>
       </c>
-      <c r="C328" t="s">
-        <v>978</v>
-      </c>
       <c r="D328" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="E328">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="329" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A329" t="s">
+        <v>978</v>
+      </c>
+      <c r="B329" t="s">
         <v>979</v>
       </c>
-      <c r="B329" t="s">
+      <c r="C329" t="s">
         <v>980</v>
       </c>
-      <c r="C329" t="s">
-        <v>981</v>
-      </c>
       <c r="D329" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="E329">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="330" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A330" t="s">
+        <v>981</v>
+      </c>
+      <c r="B330" t="s">
         <v>982</v>
       </c>
-      <c r="B330" t="s">
+      <c r="C330" t="s">
         <v>983</v>
       </c>
-      <c r="C330" t="s">
-        <v>984</v>
-      </c>
       <c r="D330" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="E330">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="331" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A331" t="s">
+        <v>984</v>
+      </c>
+      <c r="B331" t="s">
         <v>985</v>
       </c>
-      <c r="B331" t="s">
+      <c r="C331" t="s">
         <v>986</v>
       </c>
-      <c r="C331" t="s">
-        <v>987</v>
-      </c>
       <c r="D331" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="E331">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="332" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A332" t="s">
+        <v>987</v>
+      </c>
+      <c r="B332" t="s">
         <v>988</v>
       </c>
-      <c r="B332" t="s">
+      <c r="C332" t="s">
         <v>989</v>
       </c>
-      <c r="C332" t="s">
-        <v>990</v>
-      </c>
       <c r="D332" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="E332">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="333" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A333" t="s">
+        <v>990</v>
+      </c>
+      <c r="B333" t="s">
         <v>991</v>
       </c>
-      <c r="B333" t="s">
+      <c r="C333" t="s">
         <v>992</v>
       </c>
-      <c r="C333" t="s">
-        <v>993</v>
-      </c>
       <c r="D333" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="E333">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="334" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A334" t="s">
+        <v>993</v>
+      </c>
+      <c r="B334" t="s">
         <v>994</v>
       </c>
-      <c r="B334" t="s">
+      <c r="C334" t="s">
         <v>995</v>
       </c>
-      <c r="C334" t="s">
-        <v>996</v>
-      </c>
       <c r="D334" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="E334">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="335" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A335" t="s">
+        <v>996</v>
+      </c>
+      <c r="B335" t="s">
         <v>997</v>
       </c>
-      <c r="B335" t="s">
+      <c r="C335" t="s">
         <v>998</v>
       </c>
-      <c r="C335" t="s">
-        <v>999</v>
-      </c>
       <c r="D335" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="E335">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="336" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A336" t="s">
+        <v>999</v>
+      </c>
+      <c r="B336" t="s">
         <v>1000</v>
       </c>
-      <c r="B336" t="s">
+      <c r="C336" t="s">
         <v>1001</v>
       </c>
-      <c r="C336" t="s">
-        <v>1002</v>
-      </c>
       <c r="D336" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="E336">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="337" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A337" t="s">
+        <v>1002</v>
+      </c>
+      <c r="B337" t="s">
         <v>1003</v>
       </c>
-      <c r="B337" t="s">
+      <c r="C337" t="s">
         <v>1004</v>
       </c>
-      <c r="C337" t="s">
-        <v>1005</v>
-      </c>
       <c r="D337" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="E337">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="338" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A338" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B338" t="s">
         <v>1006</v>
       </c>
-      <c r="B338" t="s">
+      <c r="C338" t="s">
         <v>1007</v>
       </c>
-      <c r="C338" t="s">
-        <v>1008</v>
-      </c>
       <c r="D338" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="E338">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="339" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A339" t="s">
+        <v>1008</v>
+      </c>
+      <c r="B339" t="s">
         <v>1009</v>
       </c>
-      <c r="B339" t="s">
+      <c r="C339" t="s">
         <v>1010</v>
       </c>
-      <c r="C339" t="s">
-        <v>1011</v>
-      </c>
       <c r="D339" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="E339">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="340" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A340" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B340" t="s">
         <v>1012</v>
       </c>
-      <c r="B340" t="s">
+      <c r="C340" t="s">
         <v>1013</v>
       </c>
-      <c r="C340" t="s">
-        <v>1014</v>
-      </c>
       <c r="D340" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="E340">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="341" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A341" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B341" t="s">
         <v>1015</v>
       </c>
-      <c r="B341" t="s">
+      <c r="C341" t="s">
         <v>1016</v>
       </c>
-      <c r="C341" t="s">
-        <v>1017</v>
-      </c>
       <c r="D341" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="E341">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="342" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A342" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B342" t="s">
         <v>1018</v>
       </c>
-      <c r="B342" t="s">
+      <c r="C342" t="s">
         <v>1019</v>
       </c>
-      <c r="C342" t="s">
-        <v>1020</v>
-      </c>
       <c r="D342" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="E342">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="343" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A343" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B343" t="s">
         <v>1021</v>
       </c>
-      <c r="B343" t="s">
+      <c r="C343" t="s">
         <v>1022</v>
       </c>
-      <c r="C343" t="s">
-        <v>1023</v>
-      </c>
       <c r="D343" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="E343">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="344" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A344" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B344" t="s">
         <v>1024</v>
       </c>
-      <c r="B344" t="s">
+      <c r="C344" t="s">
         <v>1025</v>
       </c>
-      <c r="C344" t="s">
-        <v>1026</v>
-      </c>
       <c r="D344" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="E344">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="345" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A345" t="s">
+        <v>1026</v>
+      </c>
+      <c r="B345" t="s">
         <v>1027</v>
       </c>
-      <c r="B345" t="s">
+      <c r="C345" t="s">
         <v>1028</v>
       </c>
-      <c r="C345" t="s">
-        <v>1029</v>
-      </c>
       <c r="D345" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="E345">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="346" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A346" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B346" t="s">
         <v>1030</v>
       </c>
-      <c r="B346" t="s">
+      <c r="C346" t="s">
         <v>1031</v>
       </c>
-      <c r="C346" t="s">
-        <v>1032</v>
-      </c>
       <c r="D346" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="E346">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="347" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A347" t="s">
+        <v>1032</v>
+      </c>
+      <c r="B347" t="s">
         <v>1033</v>
       </c>
-      <c r="B347" t="s">
+      <c r="C347" t="s">
         <v>1034</v>
       </c>
-      <c r="C347" t="s">
-        <v>1035</v>
-      </c>
       <c r="D347" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="E347">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="348" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A348" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B348" t="s">
         <v>1036</v>
       </c>
-      <c r="B348" t="s">
+      <c r="C348" t="s">
         <v>1037</v>
       </c>
-      <c r="C348" t="s">
-        <v>1038</v>
-      </c>
       <c r="D348" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="E348">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="349" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A349" t="s">
+        <v>1038</v>
+      </c>
+      <c r="B349" t="s">
         <v>1039</v>
       </c>
-      <c r="B349" t="s">
+      <c r="C349" t="s">
         <v>1040</v>
       </c>
-      <c r="C349" t="s">
-        <v>1041</v>
-      </c>
       <c r="D349" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="E349">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="350" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A350" t="s">
+        <v>1041</v>
+      </c>
+      <c r="B350" t="s">
         <v>1042</v>
       </c>
-      <c r="B350" t="s">
+      <c r="C350" t="s">
         <v>1043</v>
       </c>
-      <c r="C350" t="s">
-        <v>1044</v>
-      </c>
       <c r="D350" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="E350">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="351" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A351" t="s">
+        <v>1044</v>
+      </c>
+      <c r="B351" t="s">
         <v>1045</v>
       </c>
-      <c r="B351" t="s">
+      <c r="C351" t="s">
         <v>1046</v>
       </c>
-      <c r="C351" t="s">
-        <v>1047</v>
-      </c>
       <c r="D351" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="E351">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="352" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A352" t="s">
+        <v>1047</v>
+      </c>
+      <c r="B352" t="s">
         <v>1048</v>
       </c>
-      <c r="B352" t="s">
+      <c r="C352" t="s">
         <v>1049</v>
       </c>
-      <c r="C352" t="s">
-        <v>1050</v>
-      </c>
       <c r="D352" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="E352">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="353" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A353" t="s">
+        <v>1050</v>
+      </c>
+      <c r="B353" t="s">
         <v>1051</v>
       </c>
-      <c r="B353" t="s">
+      <c r="C353" t="s">
         <v>1052</v>
       </c>
-      <c r="C353" t="s">
-        <v>1053</v>
-      </c>
       <c r="D353" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="E353">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="354" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A354" t="s">
+        <v>1053</v>
+      </c>
+      <c r="B354" t="s">
         <v>1054</v>
       </c>
-      <c r="B354" t="s">
+      <c r="C354" t="s">
         <v>1055</v>
       </c>
-      <c r="C354" t="s">
-        <v>1056</v>
-      </c>
       <c r="D354" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="E354">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="355" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A355" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B355" t="s">
         <v>1057</v>
       </c>
-      <c r="B355" t="s">
+      <c r="C355" t="s">
         <v>1058</v>
       </c>
-      <c r="C355" t="s">
-        <v>1059</v>
-      </c>
       <c r="D355" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="E355">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="356" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A356" t="s">
+        <v>1059</v>
+      </c>
+      <c r="B356" t="s">
         <v>1060</v>
       </c>
-      <c r="B356" t="s">
+      <c r="C356" t="s">
         <v>1061</v>
       </c>
-      <c r="C356" t="s">
-        <v>1062</v>
-      </c>
       <c r="D356" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="E356">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="357" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A357" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B357" t="s">
         <v>1063</v>
       </c>
-      <c r="B357" t="s">
+      <c r="C357" t="s">
         <v>1064</v>
       </c>
-      <c r="C357" t="s">
-        <v>1065</v>
-      </c>
       <c r="D357" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="E357">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="358" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A358" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B358" t="s">
         <v>1066</v>
       </c>
-      <c r="B358" t="s">
+      <c r="C358" t="s">
         <v>1067</v>
       </c>
-      <c r="C358" t="s">
-        <v>1068</v>
-      </c>
       <c r="D358" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="E358">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="359" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A359" t="s">
+        <v>1068</v>
+      </c>
+      <c r="B359" t="s">
         <v>1069</v>
       </c>
-      <c r="B359" t="s">
+      <c r="C359" t="s">
         <v>1070</v>
       </c>
-      <c r="C359" t="s">
-        <v>1071</v>
-      </c>
       <c r="D359" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="E359">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="360" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A360" t="s">
+        <v>1071</v>
+      </c>
+      <c r="B360" t="s">
         <v>1072</v>
       </c>
-      <c r="B360" t="s">
+      <c r="C360" t="s">
         <v>1073</v>
       </c>
-      <c r="C360" t="s">
-        <v>1074</v>
-      </c>
       <c r="D360" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="E360">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="361" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A361" t="s">
+        <v>1074</v>
+      </c>
+      <c r="B361" t="s">
         <v>1075</v>
       </c>
-      <c r="B361" t="s">
+      <c r="C361" t="s">
         <v>1076</v>
       </c>
-      <c r="C361" t="s">
-        <v>1077</v>
-      </c>
       <c r="D361" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="E361">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="362" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A362" t="s">
+        <v>1077</v>
+      </c>
+      <c r="B362" t="s">
         <v>1078</v>
       </c>
-      <c r="B362" t="s">
+      <c r="C362" t="s">
         <v>1079</v>
       </c>
-      <c r="C362" t="s">
-        <v>1080</v>
-      </c>
       <c r="D362" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="E362">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="363" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A363" t="s">
+        <v>1080</v>
+      </c>
+      <c r="B363" t="s">
         <v>1081</v>
       </c>
-      <c r="B363" t="s">
+      <c r="C363" t="s">
         <v>1082</v>
       </c>
-      <c r="C363" t="s">
-        <v>1083</v>
-      </c>
       <c r="D363" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="E363">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="364" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A364" t="s">
+        <v>1083</v>
+      </c>
+      <c r="B364" t="s">
         <v>1084</v>
       </c>
-      <c r="B364" t="s">
+      <c r="C364" t="s">
         <v>1085</v>
       </c>
-      <c r="C364" t="s">
-        <v>1086</v>
-      </c>
       <c r="D364" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="E364">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="365" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A365" t="s">
+        <v>1086</v>
+      </c>
+      <c r="B365" t="s">
         <v>1087</v>
       </c>
-      <c r="B365" t="s">
-        <v>1088</v>
-      </c>
       <c r="C365" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="D365" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="E365">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="366" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A366" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B366" t="s">
         <v>1089</v>
       </c>
-      <c r="B366" t="s">
-        <v>1090</v>
-      </c>
       <c r="C366" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="D366" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="E366">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="367" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A367" t="s">
+        <v>1090</v>
+      </c>
+      <c r="B367" t="s">
         <v>1091</v>
       </c>
-      <c r="B367" t="s">
+      <c r="C367" t="s">
         <v>1092</v>
       </c>
-      <c r="C367" t="s">
-        <v>1093</v>
-      </c>
       <c r="D367" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="E367">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="368" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A368" t="s">
+        <v>1093</v>
+      </c>
+      <c r="B368" t="s">
         <v>1094</v>
       </c>
-      <c r="B368" t="s">
+      <c r="C368" t="s">
         <v>1095</v>
       </c>
-      <c r="C368" t="s">
-        <v>1096</v>
-      </c>
       <c r="D368" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="E368">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="369" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A369" t="s">
+        <v>1096</v>
+      </c>
+      <c r="B369" t="s">
         <v>1097</v>
       </c>
-      <c r="B369" t="s">
+      <c r="C369" t="s">
         <v>1098</v>
       </c>
-      <c r="C369" t="s">
-        <v>1099</v>
-      </c>
       <c r="D369" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="E369">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="370" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A370" t="s">
+        <v>1099</v>
+      </c>
+      <c r="B370" t="s">
         <v>1100</v>
       </c>
-      <c r="B370" t="s">
+      <c r="C370" t="s">
         <v>1101</v>
       </c>
-      <c r="C370" t="s">
-        <v>1102</v>
-      </c>
       <c r="D370" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="E370">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="371" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A371" t="s">
+        <v>1102</v>
+      </c>
+      <c r="B371" t="s">
         <v>1103</v>
       </c>
-      <c r="B371" t="s">
+      <c r="C371" t="s">
         <v>1104</v>
       </c>
-      <c r="C371" t="s">
-        <v>1105</v>
-      </c>
       <c r="D371" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="E371">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="372" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A372" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B372" t="s">
         <v>1106</v>
       </c>
-      <c r="B372" t="s">
+      <c r="C372" t="s">
         <v>1107</v>
       </c>
-      <c r="C372" t="s">
-        <v>1108</v>
-      </c>
       <c r="D372" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="E372">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="373" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A373" t="s">
+        <v>1108</v>
+      </c>
+      <c r="B373" t="s">
         <v>1109</v>
       </c>
-      <c r="B373" t="s">
+      <c r="C373" t="s">
         <v>1110</v>
       </c>
-      <c r="C373" t="s">
-        <v>1111</v>
-      </c>
       <c r="D373" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="E373">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="374" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A374" t="s">
+        <v>1111</v>
+      </c>
+      <c r="B374" t="s">
         <v>1112</v>
-      </c>
-      <c r="B374" t="s">
-        <v>1113</v>
       </c>
       <c r="C374" t="s">
         <v>51</v>
       </c>
       <c r="D374" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="E374">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="375" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A375" t="s">
+        <v>1113</v>
+      </c>
+      <c r="B375" t="s">
         <v>1114</v>
       </c>
-      <c r="B375" t="s">
+      <c r="C375" t="s">
         <v>1115</v>
       </c>
-      <c r="C375" t="s">
-        <v>1116</v>
-      </c>
       <c r="D375" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="E375">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="376" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A376" t="s">
+        <v>1116</v>
+      </c>
+      <c r="B376" t="s">
         <v>1117</v>
       </c>
-      <c r="B376" t="s">
+      <c r="C376" t="s">
         <v>1118</v>
       </c>
-      <c r="C376" t="s">
-        <v>1119</v>
-      </c>
       <c r="D376" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="E376">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="377" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A377" t="s">
+        <v>1119</v>
+      </c>
+      <c r="B377" t="s">
         <v>1120</v>
       </c>
-      <c r="B377" t="s">
+      <c r="C377" t="s">
         <v>1121</v>
       </c>
-      <c r="C377" t="s">
-        <v>1122</v>
-      </c>
       <c r="D377" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="E377">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="378" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A378" t="s">
+        <v>1122</v>
+      </c>
+      <c r="B378" t="s">
         <v>1123</v>
       </c>
-      <c r="B378" t="s">
+      <c r="C378" t="s">
         <v>1124</v>
       </c>
-      <c r="C378" t="s">
-        <v>1125</v>
-      </c>
       <c r="D378" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="E378">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="379" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A379" t="s">
+        <v>1125</v>
+      </c>
+      <c r="B379" t="s">
         <v>1126</v>
       </c>
-      <c r="B379" t="s">
+      <c r="C379" t="s">
         <v>1127</v>
       </c>
-      <c r="C379" t="s">
-        <v>1128</v>
-      </c>
       <c r="D379" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="E379">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="380" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A380" t="s">
+        <v>1128</v>
+      </c>
+      <c r="B380" t="s">
         <v>1129</v>
       </c>
-      <c r="B380" t="s">
+      <c r="C380" t="s">
         <v>1130</v>
       </c>
-      <c r="C380" t="s">
-        <v>1131</v>
-      </c>
       <c r="D380" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="E380">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="381" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A381" t="s">
+        <v>1131</v>
+      </c>
+      <c r="B381" t="s">
         <v>1132</v>
       </c>
-      <c r="B381" t="s">
+      <c r="C381" t="s">
         <v>1133</v>
       </c>
-      <c r="C381" t="s">
-        <v>1134</v>
-      </c>
       <c r="D381" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="E381">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="382" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A382" t="s">
+        <v>1134</v>
+      </c>
+      <c r="B382" t="s">
         <v>1135</v>
       </c>
-      <c r="B382" t="s">
+      <c r="C382" t="s">
         <v>1136</v>
       </c>
-      <c r="C382" t="s">
-        <v>1137</v>
-      </c>
       <c r="D382" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="E382">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="383" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A383" t="s">
+        <v>1137</v>
+      </c>
+      <c r="B383" t="s">
         <v>1138</v>
       </c>
-      <c r="B383" t="s">
+      <c r="C383" t="s">
         <v>1139</v>
       </c>
-      <c r="C383" t="s">
-        <v>1140</v>
-      </c>
       <c r="D383" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="E383">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="384" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A384" t="s">
+        <v>1140</v>
+      </c>
+      <c r="B384" t="s">
         <v>1141</v>
       </c>
-      <c r="B384" t="s">
+      <c r="C384" t="s">
         <v>1142</v>
       </c>
-      <c r="C384" t="s">
-        <v>1143</v>
-      </c>
       <c r="D384" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="E384">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="385" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A385" t="s">
+        <v>1143</v>
+      </c>
+      <c r="B385" t="s">
         <v>1144</v>
       </c>
-      <c r="B385" t="s">
+      <c r="C385" t="s">
         <v>1145</v>
       </c>
-      <c r="C385" t="s">
-        <v>1146</v>
-      </c>
       <c r="D385" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="E385">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="386" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A386" t="s">
+        <v>1146</v>
+      </c>
+      <c r="B386" t="s">
         <v>1147</v>
       </c>
-      <c r="B386" t="s">
+      <c r="C386" t="s">
         <v>1148</v>
       </c>
-      <c r="C386" t="s">
-        <v>1149</v>
-      </c>
       <c r="D386" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="E386">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="387" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A387" t="s">
+        <v>1149</v>
+      </c>
+      <c r="B387" t="s">
         <v>1150</v>
       </c>
-      <c r="B387" t="s">
+      <c r="C387" t="s">
         <v>1151</v>
       </c>
-      <c r="C387" t="s">
-        <v>1152</v>
-      </c>
       <c r="D387" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="E387">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="388" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A388" t="s">
+        <v>1152</v>
+      </c>
+      <c r="B388" t="s">
         <v>1153</v>
       </c>
-      <c r="B388" t="s">
+      <c r="C388" t="s">
         <v>1154</v>
       </c>
-      <c r="C388" t="s">
-        <v>1155</v>
-      </c>
       <c r="D388" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="E388">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="389" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A389" t="s">
+        <v>1155</v>
+      </c>
+      <c r="B389" t="s">
         <v>1156</v>
       </c>
-      <c r="B389" t="s">
+      <c r="C389" t="s">
         <v>1157</v>
       </c>
-      <c r="C389" t="s">
-        <v>1158</v>
-      </c>
       <c r="D389" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="E389">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="390" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A390" t="s">
+        <v>1158</v>
+      </c>
+      <c r="B390" t="s">
         <v>1159</v>
       </c>
-      <c r="B390" t="s">
+      <c r="C390" t="s">
         <v>1160</v>
       </c>
-      <c r="C390" t="s">
-        <v>1161</v>
-      </c>
       <c r="D390" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="E390">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="391" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A391" t="s">
+        <v>1161</v>
+      </c>
+      <c r="B391" t="s">
         <v>1162</v>
       </c>
-      <c r="B391" t="s">
+      <c r="C391" t="s">
         <v>1163</v>
       </c>
-      <c r="C391" t="s">
-        <v>1164</v>
-      </c>
       <c r="D391" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="E391">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="392" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A392" t="s">
+        <v>1164</v>
+      </c>
+      <c r="B392" t="s">
         <v>1165</v>
       </c>
-      <c r="B392" t="s">
+      <c r="C392" t="s">
         <v>1166</v>
       </c>
-      <c r="C392" t="s">
-        <v>1167</v>
-      </c>
       <c r="D392" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="E392">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="393" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A393" t="s">
+        <v>1167</v>
+      </c>
+      <c r="B393" t="s">
         <v>1168</v>
       </c>
-      <c r="B393" t="s">
-        <v>1169</v>
-      </c>
       <c r="C393" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="D393" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="E393">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="394" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A394" t="s">
+        <v>1169</v>
+      </c>
+      <c r="B394" t="s">
         <v>1170</v>
       </c>
-      <c r="B394" t="s">
+      <c r="C394" t="s">
         <v>1171</v>
       </c>
-      <c r="C394" t="s">
-        <v>1172</v>
-      </c>
       <c r="D394" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="E394">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="395" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A395" t="s">
+        <v>1172</v>
+      </c>
+      <c r="B395" t="s">
         <v>1173</v>
       </c>
-      <c r="B395" t="s">
+      <c r="C395" t="s">
         <v>1174</v>
       </c>
-      <c r="C395" t="s">
-        <v>1175</v>
-      </c>
       <c r="D395" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="E395">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="396" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A396" t="s">
+        <v>1175</v>
+      </c>
+      <c r="B396" t="s">
+        <v>1091</v>
+      </c>
+      <c r="C396" t="s">
         <v>1176</v>
       </c>
-      <c r="B396" t="s">
-        <v>1092</v>
-      </c>
-      <c r="C396" t="s">
-        <v>1177</v>
-      </c>
       <c r="D396" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="E396">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="397" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A397" t="s">
+        <v>1177</v>
+      </c>
+      <c r="B397" t="s">
         <v>1178</v>
       </c>
-      <c r="B397" t="s">
+      <c r="C397" t="s">
         <v>1179</v>
       </c>
-      <c r="C397" t="s">
-        <v>1180</v>
-      </c>
       <c r="D397" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="E397">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="398" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A398" t="s">
+        <v>1180</v>
+      </c>
+      <c r="B398" t="s">
         <v>1181</v>
       </c>
-      <c r="B398" t="s">
+      <c r="C398" t="s">
         <v>1182</v>
       </c>
-      <c r="C398" t="s">
-        <v>1183</v>
-      </c>
       <c r="D398" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="E398">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="399" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A399" t="s">
+        <v>1183</v>
+      </c>
+      <c r="B399" t="s">
         <v>1184</v>
       </c>
-      <c r="B399" t="s">
+      <c r="C399" t="s">
         <v>1185</v>
       </c>
-      <c r="C399" t="s">
-        <v>1186</v>
-      </c>
       <c r="D399" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="E399">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="400" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A400" t="s">
+        <v>1186</v>
+      </c>
+      <c r="B400" t="s">
         <v>1187</v>
       </c>
-      <c r="B400" t="s">
+      <c r="C400" t="s">
         <v>1188</v>
       </c>
-      <c r="C400" t="s">
-        <v>1189</v>
-      </c>
       <c r="D400" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="E400">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="401" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A401" t="s">
+        <v>1189</v>
+      </c>
+      <c r="B401" t="s">
         <v>1190</v>
       </c>
-      <c r="B401" t="s">
+      <c r="C401" t="s">
         <v>1191</v>
       </c>
-      <c r="C401" t="s">
-        <v>1192</v>
-      </c>
       <c r="D401" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="E401">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="402" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A402" t="s">
+        <v>1192</v>
+      </c>
+      <c r="B402" t="s">
         <v>1193</v>
       </c>
-      <c r="B402" t="s">
+      <c r="C402" t="s">
         <v>1194</v>
       </c>
-      <c r="C402" t="s">
-        <v>1195</v>
-      </c>
       <c r="D402" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="E402">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="403" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A403" t="s">
+        <v>1195</v>
+      </c>
+      <c r="B403" t="s">
         <v>1196</v>
       </c>
-      <c r="B403" t="s">
+      <c r="C403" t="s">
         <v>1197</v>
       </c>
-      <c r="C403" t="s">
-        <v>1198</v>
-      </c>
       <c r="D403" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="E403">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="404" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A404" t="s">
+        <v>1198</v>
+      </c>
+      <c r="B404" t="s">
         <v>1199</v>
       </c>
-      <c r="B404" t="s">
+      <c r="C404" t="s">
         <v>1200</v>
       </c>
-      <c r="C404" t="s">
-        <v>1201</v>
-      </c>
       <c r="D404" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="E404">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="405" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A405" t="s">
+        <v>1201</v>
+      </c>
+      <c r="B405" t="s">
         <v>1202</v>
       </c>
-      <c r="B405" t="s">
+      <c r="C405" t="s">
         <v>1203</v>
       </c>
-      <c r="C405" t="s">
-        <v>1204</v>
-      </c>
       <c r="D405" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="E405">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="406" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A406" t="s">
+        <v>1204</v>
+      </c>
+      <c r="B406" t="s">
         <v>1205</v>
       </c>
-      <c r="B406" t="s">
+      <c r="C406" t="s">
         <v>1206</v>
       </c>
-      <c r="C406" t="s">
-        <v>1207</v>
-      </c>
       <c r="D406" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="E406">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="407" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A407" t="s">
+        <v>1207</v>
+      </c>
+      <c r="B407" t="s">
         <v>1208</v>
       </c>
-      <c r="B407" t="s">
+      <c r="C407" t="s">
         <v>1209</v>
       </c>
-      <c r="C407" t="s">
-        <v>1210</v>
-      </c>
       <c r="D407" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="E407">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="408" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A408" t="s">
+        <v>1210</v>
+      </c>
+      <c r="B408" t="s">
         <v>1211</v>
       </c>
-      <c r="B408" t="s">
+      <c r="C408" t="s">
         <v>1212</v>
       </c>
-      <c r="C408" t="s">
-        <v>1213</v>
-      </c>
       <c r="D408" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="E408">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="409" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A409" t="s">
+        <v>1213</v>
+      </c>
+      <c r="B409" t="s">
         <v>1214</v>
       </c>
-      <c r="B409" t="s">
+      <c r="C409" t="s">
         <v>1215</v>
       </c>
-      <c r="C409" t="s">
-        <v>1216</v>
-      </c>
       <c r="D409" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="E409">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="410" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A410" t="s">
+        <v>1216</v>
+      </c>
+      <c r="B410" t="s">
         <v>1217</v>
       </c>
-      <c r="B410" t="s">
+      <c r="C410" t="s">
         <v>1218</v>
       </c>
-      <c r="C410" t="s">
-        <v>1219</v>
-      </c>
       <c r="D410" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="E410">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="411" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A411" t="s">
+        <v>1219</v>
+      </c>
+      <c r="B411" t="s">
         <v>1220</v>
       </c>
-      <c r="B411" t="s">
+      <c r="C411" t="s">
         <v>1221</v>
       </c>
-      <c r="C411" t="s">
-        <v>1222</v>
-      </c>
       <c r="D411" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="E411">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="412" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A412" t="s">
+        <v>1222</v>
+      </c>
+      <c r="B412" t="s">
         <v>1223</v>
       </c>
-      <c r="B412" t="s">
+      <c r="C412" t="s">
         <v>1224</v>
       </c>
-      <c r="C412" t="s">
-        <v>1225</v>
-      </c>
       <c r="D412" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="E412">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="413" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A413" t="s">
+        <v>1225</v>
+      </c>
+      <c r="B413" t="s">
         <v>1226</v>
       </c>
-      <c r="B413" t="s">
+      <c r="C413" t="s">
         <v>1227</v>
       </c>
-      <c r="C413" t="s">
-        <v>1228</v>
-      </c>
       <c r="D413" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="E413">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="414" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A414" t="s">
+        <v>1228</v>
+      </c>
+      <c r="B414" t="s">
         <v>1229</v>
       </c>
-      <c r="B414" t="s">
+      <c r="C414" t="s">
         <v>1230</v>
       </c>
-      <c r="C414" t="s">
-        <v>1231</v>
-      </c>
       <c r="D414" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="E414">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="415" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A415" t="s">
+        <v>1231</v>
+      </c>
+      <c r="B415" t="s">
         <v>1232</v>
       </c>
-      <c r="B415" t="s">
+      <c r="C415" t="s">
         <v>1233</v>
       </c>
-      <c r="C415" t="s">
-        <v>1234</v>
-      </c>
       <c r="D415" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="E415">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="416" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A416" t="s">
+        <v>1234</v>
+      </c>
+      <c r="B416" t="s">
         <v>1235</v>
       </c>
-      <c r="B416" t="s">
+      <c r="C416" t="s">
         <v>1236</v>
       </c>
-      <c r="C416" t="s">
-        <v>1237</v>
-      </c>
       <c r="D416" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="E416">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="417" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A417" t="s">
+        <v>1237</v>
+      </c>
+      <c r="B417" t="s">
         <v>1238</v>
       </c>
-      <c r="B417" t="s">
+      <c r="C417" t="s">
         <v>1239</v>
       </c>
-      <c r="C417" t="s">
-        <v>1240</v>
-      </c>
       <c r="D417" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="E417">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="418" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A418" t="s">
+        <v>1240</v>
+      </c>
+      <c r="B418" t="s">
         <v>1241</v>
       </c>
-      <c r="B418" t="s">
+      <c r="C418" t="s">
         <v>1242</v>
       </c>
-      <c r="C418" t="s">
-        <v>1243</v>
-      </c>
       <c r="D418" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="E418">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="419" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A419" t="s">
+        <v>1243</v>
+      </c>
+      <c r="B419" t="s">
         <v>1244</v>
       </c>
-      <c r="B419" t="s">
+      <c r="C419" t="s">
         <v>1245</v>
       </c>
-      <c r="C419" t="s">
-        <v>1246</v>
-      </c>
       <c r="D419" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="E419">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="420" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A420" t="s">
+        <v>1246</v>
+      </c>
+      <c r="B420" t="s">
         <v>1247</v>
       </c>
-      <c r="B420" t="s">
+      <c r="C420" t="s">
         <v>1248</v>
       </c>
-      <c r="C420" t="s">
-        <v>1249</v>
-      </c>
       <c r="D420" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="E420">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="421" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A421" t="s">
+        <v>1249</v>
+      </c>
+      <c r="B421" t="s">
         <v>1250</v>
       </c>
-      <c r="B421" t="s">
+      <c r="C421" t="s">
         <v>1251</v>
       </c>
-      <c r="C421" t="s">
-        <v>1252</v>
-      </c>
       <c r="D421" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="E421">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="422" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A422" t="s">
+        <v>1252</v>
+      </c>
+      <c r="B422" t="s">
         <v>1253</v>
       </c>
-      <c r="B422" t="s">
+      <c r="C422" t="s">
         <v>1254</v>
       </c>
-      <c r="C422" t="s">
-        <v>1255</v>
-      </c>
       <c r="D422" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="E422">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="423" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A423" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B423" t="s">
         <v>1256</v>
       </c>
-      <c r="B423" t="s">
+      <c r="C423" t="s">
         <v>1257</v>
       </c>
-      <c r="C423" t="s">
-        <v>1258</v>
-      </c>
       <c r="D423" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="E423">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="424" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A424" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="B424" t="s">
+        <v>1258</v>
+      </c>
+      <c r="C424" t="s">
         <v>1259</v>
       </c>
-      <c r="C424" t="s">
-        <v>1260</v>
-      </c>
       <c r="D424" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="E424">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="425" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A425" t="s">
+        <v>1260</v>
+      </c>
+      <c r="B425" t="s">
         <v>1261</v>
       </c>
-      <c r="B425" t="s">
+      <c r="C425" t="s">
         <v>1262</v>
       </c>
-      <c r="C425" t="s">
-        <v>1263</v>
-      </c>
       <c r="D425" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="E425">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="426" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A426" t="s">
+        <v>1263</v>
+      </c>
+      <c r="B426" t="s">
         <v>1264</v>
       </c>
-      <c r="B426" t="s">
+      <c r="C426" t="s">
         <v>1265</v>
       </c>
-      <c r="C426" t="s">
-        <v>1266</v>
-      </c>
       <c r="D426" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="E426">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
